--- a/시장분석용_정보/시장분석용_2917051000.xlsx
+++ b/시장분석용_정보/시장분석용_2917051000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="80">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="109">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,6 +160,48 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
     <t>202001 6229027417</t>
   </si>
   <si>
@@ -226,6 +316,15 @@
     <t>202205 4099606539</t>
   </si>
   <si>
+    <t>JDQ4MTYyMiM3MSMkMSMkMCMkOTkkMzgxMzUxIzMxIyQxIyQzIyQ3OSQyNjE0ODEjNDEjJDEjJDgjJDgz</t>
+  </si>
+  <si>
+    <t>JDQ4MTYyMiM3MSMkMiMkMCMkMDAkMzgxOTYxIzIxIyQxIyQ1IyQ4MiQzNjEyMjIjNDEjJDEjJDgjJDgz</t>
+  </si>
+  <si>
+    <t>광주광역시</t>
+  </si>
+  <si>
     <t>중흥병원</t>
   </si>
   <si>
@@ -236,18 +335,6 @@
   </si>
   <si>
     <t>광주광역시 북구 무등로 260 (중흥동)</t>
-  </si>
-  <si>
-    <t>광주광역시 북구 경양로 154 .</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM3MSMkMSMkMCMkOTkkMzgxMzUxIzMxIyQxIyQzIyQ3OSQyNjE0ODEjNDEjJDEjJDgjJDgz</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM3MSMkMiMkMCMkMDAkMzgxOTYxIzIxIyQxIyQ1IyQ4MiQzNjEyMjIjNDEjJDEjJDgjJDgz</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>병원</t>
@@ -611,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:BK39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,43 +801,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>5954</v>
+        <v>760</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2">
         <v>202001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="E2">
-        <v>114658750</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>6229027417</v>
       </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2">
+        <v>105</v>
+      </c>
+      <c r="J2">
         <v>2917051000</v>
+      </c>
+      <c r="K2">
+        <v>601.6636363636364</v>
+      </c>
+      <c r="L2" t="s">
+        <v>107</v>
       </c>
       <c r="M2">
         <v>95456767</v>
@@ -762,96 +939,186 @@
         <v>919567</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>94.63</v>
       </c>
       <c r="Q2">
+        <v>5.37</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>17.28</v>
+      </c>
+      <c r="T2">
+        <v>31.89</v>
+      </c>
+      <c r="U2">
+        <v>21.05</v>
+      </c>
+      <c r="V2">
+        <v>20.13</v>
+      </c>
+      <c r="W2">
+        <v>4.29</v>
+      </c>
+      <c r="X2">
+        <v>5.37</v>
+      </c>
+      <c r="Y2">
+        <v>34.16</v>
+      </c>
+      <c r="Z2">
+        <v>47.58</v>
+      </c>
+      <c r="AA2">
+        <v>18.26</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
         <v>5.87</v>
       </c>
-      <c r="R2">
+      <c r="AH2">
         <v>4.34</v>
       </c>
-      <c r="S2">
+      <c r="AI2">
         <v>27.06</v>
       </c>
-      <c r="T2">
+      <c r="AJ2">
         <v>20.67</v>
       </c>
-      <c r="U2">
+      <c r="AK2">
         <v>13.38</v>
       </c>
-      <c r="V2">
+      <c r="AL2">
         <v>0.11</v>
       </c>
-      <c r="W2">
+      <c r="AM2">
         <v>4.58</v>
       </c>
-      <c r="X2">
+      <c r="AN2">
         <v>11.36</v>
       </c>
-      <c r="Y2">
+      <c r="AO2">
         <v>12.62</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>64.01000000000001</v>
       </c>
-      <c r="AD2">
+      <c r="AT2">
         <v>23.88</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
         <v>4.55</v>
       </c>
-      <c r="AG2">
+      <c r="AW2">
         <v>7.56</v>
       </c>
+      <c r="AX2">
+        <v>24.74</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>20.26</v>
+      </c>
+      <c r="BB2">
+        <v>39.98</v>
+      </c>
+      <c r="BC2">
+        <v>15.01</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>8.94</v>
+      </c>
+      <c r="BF2">
+        <v>10.42</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>28.32</v>
+      </c>
+      <c r="BI2">
+        <v>87.02</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>6025</v>
+        <v>847</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3">
         <v>202001</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="E3">
-        <v>11512209</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>4099606539</v>
       </c>
-      <c r="G3" t="s">
-        <v>71</v>
-      </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J3">
+        <v>2917051000</v>
+      </c>
+      <c r="K3">
         <v>40.3969696969697</v>
       </c>
-      <c r="K3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3">
-        <v>2917051000</v>
+      <c r="L3" t="s">
+        <v>108</v>
       </c>
       <c r="M3">
         <v>2003861</v>
@@ -863,96 +1130,186 @@
         <v>7083</v>
       </c>
       <c r="P3">
+        <v>93.59</v>
+      </c>
+      <c r="Q3">
+        <v>6.41</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="T3">
+        <v>13.8</v>
+      </c>
+      <c r="U3">
+        <v>11.22</v>
+      </c>
+      <c r="V3">
+        <v>7.92</v>
+      </c>
+      <c r="W3">
+        <v>52.29</v>
+      </c>
+      <c r="X3">
+        <v>6.41</v>
+      </c>
+      <c r="Y3">
+        <v>52.55</v>
+      </c>
+      <c r="Z3">
+        <v>34.41</v>
+      </c>
+      <c r="AA3">
+        <v>13.05</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
         <v>3.4</v>
       </c>
-      <c r="Q3">
+      <c r="AG3">
         <v>2.67</v>
       </c>
-      <c r="R3">
+      <c r="AH3">
         <v>13.46</v>
       </c>
-      <c r="S3">
+      <c r="AI3">
         <v>9.15</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
         <v>2.14</v>
       </c>
-      <c r="V3">
+      <c r="AL3">
         <v>9.359999999999999</v>
       </c>
-      <c r="W3">
+      <c r="AM3">
         <v>18.27</v>
       </c>
-      <c r="X3">
+      <c r="AN3">
         <v>2.51</v>
       </c>
-      <c r="Y3">
+      <c r="AO3">
         <v>39.03</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>12.78</v>
       </c>
-      <c r="AD3">
+      <c r="AT3">
         <v>40.71</v>
       </c>
-      <c r="AE3">
+      <c r="AU3">
         <v>6.33</v>
       </c>
-      <c r="AF3">
+      <c r="AV3">
         <v>3.27</v>
       </c>
-      <c r="AG3">
+      <c r="AW3">
         <v>36.92</v>
       </c>
+      <c r="AX3">
+        <v>14.2</v>
+      </c>
+      <c r="AY3">
+        <v>2.77</v>
+      </c>
+      <c r="AZ3">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="BA3">
+        <v>28.84</v>
+      </c>
+      <c r="BB3">
+        <v>44.29</v>
+      </c>
+      <c r="BC3">
+        <v>1.2</v>
+      </c>
+      <c r="BD3">
+        <v>4.89</v>
+      </c>
+      <c r="BE3">
+        <v>2.3</v>
+      </c>
+      <c r="BF3">
+        <v>5.12</v>
+      </c>
+      <c r="BG3">
+        <v>12.37</v>
+      </c>
+      <c r="BH3">
+        <v>32.63</v>
+      </c>
+      <c r="BI3">
+        <v>92.34</v>
+      </c>
+      <c r="BJ3">
+        <v>29.8</v>
+      </c>
+      <c r="BK3">
+        <v>14.9</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>27475</v>
+        <v>2453</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4">
         <v>202002</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2020</v>
       </c>
-      <c r="E4">
-        <v>114658750</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>6229027417</v>
       </c>
-      <c r="G4" t="s">
-        <v>70</v>
-      </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4">
+        <v>105</v>
+      </c>
+      <c r="J4">
         <v>2917051000</v>
+      </c>
+      <c r="K4">
+        <v>601.6636363636364</v>
+      </c>
+      <c r="L4" t="s">
+        <v>107</v>
       </c>
       <c r="M4">
         <v>29544873</v>
@@ -964,96 +1321,186 @@
         <v>575313</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>71.39</v>
       </c>
       <c r="Q4">
+        <v>28.61</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>17.38</v>
+      </c>
+      <c r="T4">
+        <v>15.1</v>
+      </c>
+      <c r="U4">
+        <v>21.44</v>
+      </c>
+      <c r="V4">
+        <v>0.35</v>
+      </c>
+      <c r="W4">
+        <v>17.12</v>
+      </c>
+      <c r="X4">
+        <v>28.61</v>
+      </c>
+      <c r="Y4">
+        <v>48.01</v>
+      </c>
+      <c r="Z4">
+        <v>45.11</v>
+      </c>
+      <c r="AA4">
+        <v>6.88</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
         <v>0.16</v>
       </c>
-      <c r="R4">
+      <c r="AH4">
         <v>14.6</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>54.54</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
         <v>0.7</v>
       </c>
-      <c r="W4">
+      <c r="AM4">
         <v>15.1</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
         <v>14.91</v>
       </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
         <v>38.08</v>
       </c>
-      <c r="AD4">
+      <c r="AT4">
         <v>46.82</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
         <v>15.1</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0.7</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0.16</v>
+      </c>
+      <c r="BA4">
+        <v>29.7</v>
+      </c>
+      <c r="BB4">
+        <v>54.54</v>
+      </c>
+      <c r="BC4">
+        <v>14.91</v>
+      </c>
+      <c r="BD4">
+        <v>46</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0.7</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>15.06</v>
+      </c>
+      <c r="BI4">
+        <v>54</v>
+      </c>
+      <c r="BJ4">
+        <v>12.5</v>
+      </c>
+      <c r="BK4">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>27545</v>
+        <v>2539</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5">
         <v>202002</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2020</v>
       </c>
-      <c r="E5">
-        <v>11512209</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>4099606539</v>
       </c>
-      <c r="G5" t="s">
-        <v>71</v>
-      </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J5">
+        <v>2917051000</v>
+      </c>
+      <c r="K5">
         <v>40.3969696969697</v>
       </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5">
-        <v>2917051000</v>
+      <c r="L5" t="s">
+        <v>108</v>
       </c>
       <c r="M5">
         <v>953428</v>
@@ -1065,96 +1512,186 @@
         <v>4981</v>
       </c>
       <c r="P5">
+        <v>90.18000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>9.82</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>10.65</v>
+      </c>
+      <c r="T5">
+        <v>32.35</v>
+      </c>
+      <c r="U5">
+        <v>27.27</v>
+      </c>
+      <c r="V5">
+        <v>9.98</v>
+      </c>
+      <c r="W5">
+        <v>9.93</v>
+      </c>
+      <c r="X5">
+        <v>9.82</v>
+      </c>
+      <c r="Y5">
+        <v>20.64</v>
+      </c>
+      <c r="Z5">
+        <v>57.67</v>
+      </c>
+      <c r="AA5">
+        <v>21.7</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
         <v>10.17</v>
       </c>
-      <c r="Q5">
+      <c r="AG5">
         <v>3.43</v>
       </c>
-      <c r="R5">
+      <c r="AH5">
         <v>6.62</v>
       </c>
-      <c r="S5">
+      <c r="AI5">
         <v>7.2</v>
       </c>
-      <c r="T5">
+      <c r="AJ5">
         <v>3.83</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
         <v>13.76</v>
       </c>
-      <c r="W5">
+      <c r="AM5">
         <v>10.97</v>
       </c>
-      <c r="X5">
+      <c r="AN5">
         <v>11.82</v>
       </c>
-      <c r="Y5">
+      <c r="AO5">
         <v>32.21</v>
       </c>
-      <c r="Z5">
+      <c r="AP5">
         <v>7.42</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>13.08</v>
       </c>
-      <c r="AD5">
+      <c r="AT5">
         <v>68.53</v>
       </c>
-      <c r="AE5">
+      <c r="AU5">
         <v>6.23</v>
       </c>
-      <c r="AF5">
+      <c r="AV5">
         <v>0.86</v>
       </c>
-      <c r="AG5">
+      <c r="AW5">
         <v>3.88</v>
       </c>
+      <c r="AX5">
+        <v>30.04</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>13.31</v>
+      </c>
+      <c r="BA5">
+        <v>18.22</v>
+      </c>
+      <c r="BB5">
+        <v>29.58</v>
+      </c>
+      <c r="BC5">
+        <v>8.85</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>7.42</v>
+      </c>
+      <c r="BF5">
+        <v>5.48</v>
+      </c>
+      <c r="BG5">
+        <v>33.47</v>
+      </c>
+      <c r="BH5">
+        <v>42.26</v>
+      </c>
+      <c r="BI5">
+        <v>92.86</v>
+      </c>
+      <c r="BJ5">
+        <v>44.8</v>
+      </c>
+      <c r="BK5">
+        <v>17.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>48894</v>
+        <v>4146</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6">
         <v>202003</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2020</v>
       </c>
-      <c r="E6">
-        <v>114658750</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>6229027417</v>
       </c>
-      <c r="G6" t="s">
-        <v>70</v>
-      </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6">
+        <v>105</v>
+      </c>
+      <c r="J6">
         <v>2917051000</v>
+      </c>
+      <c r="K6">
+        <v>601.6636363636364</v>
+      </c>
+      <c r="L6" t="s">
+        <v>107</v>
       </c>
       <c r="M6">
         <v>91687954</v>
@@ -1166,96 +1703,186 @@
         <v>1076758</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.46</v>
+      </c>
+      <c r="T6">
+        <v>19.06</v>
+      </c>
+      <c r="U6">
+        <v>38.75</v>
+      </c>
+      <c r="V6">
+        <v>20.22</v>
+      </c>
+      <c r="W6">
+        <v>0.11</v>
+      </c>
+      <c r="X6">
+        <v>9.4</v>
+      </c>
+      <c r="Y6">
+        <v>49.37</v>
+      </c>
+      <c r="Z6">
+        <v>38.48</v>
+      </c>
+      <c r="AA6">
+        <v>12.15</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
         <v>20.08</v>
       </c>
-      <c r="S6">
+      <c r="AI6">
         <v>30.15</v>
       </c>
-      <c r="T6">
+      <c r="AJ6">
         <v>13.24</v>
       </c>
-      <c r="U6">
+      <c r="AK6">
         <v>11.73</v>
       </c>
-      <c r="V6">
+      <c r="AL6">
         <v>8.81</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
         <v>15.99</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
         <v>20.14</v>
       </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>29.13</v>
       </c>
-      <c r="AD6">
+      <c r="AT6">
         <v>50.73</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>11.85</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>17.57</v>
+      </c>
+      <c r="BA6">
+        <v>16.17</v>
+      </c>
+      <c r="BB6">
+        <v>25.18</v>
+      </c>
+      <c r="BC6">
+        <v>29.23</v>
+      </c>
+      <c r="BD6">
+        <v>12.94</v>
+      </c>
+      <c r="BE6">
+        <v>0.12</v>
+      </c>
+      <c r="BF6">
+        <v>11.73</v>
+      </c>
+      <c r="BG6">
+        <v>0.12</v>
+      </c>
+      <c r="BH6">
+        <v>31.98</v>
+      </c>
+      <c r="BI6">
+        <v>82.63</v>
+      </c>
+      <c r="BJ6">
+        <v>25</v>
+      </c>
+      <c r="BK6">
+        <v>6.3</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
-        <v>48964</v>
+        <v>4233</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7">
         <v>202003</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2020</v>
       </c>
-      <c r="E7">
-        <v>11512209</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>4099606539</v>
       </c>
-      <c r="G7" t="s">
-        <v>71</v>
-      </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J7">
+        <v>2917051000</v>
+      </c>
+      <c r="K7">
         <v>40.3969696969697</v>
       </c>
-      <c r="K7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7">
-        <v>2917051000</v>
+      <c r="L7" t="s">
+        <v>108</v>
       </c>
       <c r="M7">
         <v>1521456</v>
@@ -1267,96 +1894,186 @@
         <v>9509</v>
       </c>
       <c r="P7">
+        <v>98.69</v>
+      </c>
+      <c r="Q7">
+        <v>1.31</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>19.36</v>
+      </c>
+      <c r="T7">
+        <v>11.53</v>
+      </c>
+      <c r="U7">
+        <v>4.04</v>
+      </c>
+      <c r="V7">
+        <v>60.11</v>
+      </c>
+      <c r="W7">
+        <v>3.65</v>
+      </c>
+      <c r="X7">
+        <v>1.31</v>
+      </c>
+      <c r="Y7">
+        <v>75.25</v>
+      </c>
+      <c r="Z7">
+        <v>19.36</v>
+      </c>
+      <c r="AA7">
+        <v>5.39</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
         <v>0.95</v>
       </c>
-      <c r="Q7">
+      <c r="AG7">
         <v>3.15</v>
       </c>
-      <c r="R7">
+      <c r="AH7">
         <v>1.31</v>
       </c>
-      <c r="S7">
+      <c r="AI7">
         <v>13.84</v>
       </c>
-      <c r="T7">
+      <c r="AJ7">
         <v>0.49</v>
       </c>
-      <c r="U7">
+      <c r="AK7">
         <v>8.77</v>
       </c>
-      <c r="V7">
+      <c r="AL7">
         <v>1.05</v>
       </c>
-      <c r="W7">
+      <c r="AM7">
         <v>8.35</v>
       </c>
-      <c r="X7">
+      <c r="AN7">
         <v>53.37</v>
       </c>
-      <c r="Y7">
+      <c r="AO7">
         <v>8.710000000000001</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
         <v>16.17</v>
       </c>
-      <c r="AD7">
+      <c r="AT7">
         <v>29.21</v>
       </c>
-      <c r="AE7">
+      <c r="AU7">
         <v>49.29</v>
       </c>
-      <c r="AF7">
+      <c r="AV7">
         <v>5.32</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>12.68</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>54.98</v>
+      </c>
+      <c r="BA7">
+        <v>12.75</v>
+      </c>
+      <c r="BB7">
+        <v>13.14</v>
+      </c>
+      <c r="BC7">
+        <v>6.44</v>
+      </c>
+      <c r="BD7">
+        <v>3.32</v>
+      </c>
+      <c r="BE7">
+        <v>2.53</v>
+      </c>
+      <c r="BF7">
+        <v>7.2</v>
+      </c>
+      <c r="BG7">
+        <v>7.76</v>
+      </c>
+      <c r="BH7">
+        <v>76.7</v>
+      </c>
+      <c r="BI7">
+        <v>94.64</v>
+      </c>
+      <c r="BJ7">
+        <v>50</v>
+      </c>
+      <c r="BK7">
+        <v>14.3</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
-        <v>70290</v>
+        <v>5836</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8">
         <v>202004</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2020</v>
       </c>
-      <c r="E8">
-        <v>114658750</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>6229027417</v>
       </c>
-      <c r="G8" t="s">
-        <v>70</v>
-      </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8">
+        <v>105</v>
+      </c>
+      <c r="J8">
         <v>2917051000</v>
+      </c>
+      <c r="K8">
+        <v>601.6636363636364</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
       </c>
       <c r="M8">
         <v>21314127</v>
@@ -1368,96 +2085,186 @@
         <v>853250</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.36</v>
+      </c>
+      <c r="T8">
+        <v>85.58</v>
+      </c>
+      <c r="U8">
+        <v>14.06</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>99.64</v>
+      </c>
+      <c r="AA8">
+        <v>0.36</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
         <v>9.380000000000001</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>90.62</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
         <v>4.69</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>47.32</v>
       </c>
-      <c r="AD8">
+      <c r="AT8">
         <v>47.99</v>
       </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>56.34</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>38.62</v>
+      </c>
+      <c r="BC8">
+        <v>5.05</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0.36</v>
+      </c>
+      <c r="BH8">
+        <v>61.38</v>
+      </c>
+      <c r="BI8">
+        <v>100</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
-        <v>70359</v>
+        <v>5921</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9">
         <v>202004</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2020</v>
       </c>
-      <c r="E9">
-        <v>11512209</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>4099606539</v>
       </c>
-      <c r="G9" t="s">
-        <v>71</v>
-      </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J9">
+        <v>2917051000</v>
+      </c>
+      <c r="K9">
         <v>40.3969696969697</v>
       </c>
-      <c r="K9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9">
-        <v>2917051000</v>
+      <c r="L9" t="s">
+        <v>108</v>
       </c>
       <c r="M9">
         <v>570532</v>
@@ -1469,96 +2276,186 @@
         <v>4667</v>
       </c>
       <c r="P9">
+        <v>84.64</v>
+      </c>
+      <c r="Q9">
+        <v>15.36</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>6.79</v>
+      </c>
+      <c r="T9">
+        <v>30.18</v>
+      </c>
+      <c r="U9">
+        <v>13.75</v>
+      </c>
+      <c r="V9">
+        <v>12.5</v>
+      </c>
+      <c r="W9">
+        <v>21.43</v>
+      </c>
+      <c r="X9">
+        <v>15.36</v>
+      </c>
+      <c r="Y9">
+        <v>28.66</v>
+      </c>
+      <c r="Z9">
+        <v>27.05</v>
+      </c>
+      <c r="AA9">
+        <v>44.29</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
         <v>8.57</v>
       </c>
-      <c r="Q9">
+      <c r="AG9">
         <v>12.77</v>
       </c>
-      <c r="R9">
+      <c r="AH9">
         <v>1.34</v>
       </c>
-      <c r="S9">
+      <c r="AI9">
         <v>16.52</v>
       </c>
-      <c r="T9">
+      <c r="AJ9">
         <v>20.45</v>
       </c>
-      <c r="U9">
+      <c r="AK9">
         <v>7.5</v>
       </c>
-      <c r="V9">
+      <c r="AL9">
         <v>11.43</v>
       </c>
-      <c r="W9">
+      <c r="AM9">
         <v>2.59</v>
       </c>
-      <c r="X9">
+      <c r="AN9">
         <v>2.59</v>
       </c>
-      <c r="Y9">
+      <c r="AO9">
         <v>16.25</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
         <v>48.84</v>
       </c>
-      <c r="AD9">
+      <c r="AT9">
         <v>22.86</v>
       </c>
-      <c r="AE9">
+      <c r="AU9">
         <v>16.79</v>
       </c>
-      <c r="AF9">
+      <c r="AV9">
         <v>11.52</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>29.91</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>7.32</v>
+      </c>
+      <c r="BA9">
+        <v>23.21</v>
+      </c>
+      <c r="BB9">
+        <v>31.52</v>
+      </c>
+      <c r="BC9">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="BD9">
+        <v>5.45</v>
+      </c>
+      <c r="BE9">
+        <v>12.32</v>
+      </c>
+      <c r="BF9">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="BG9">
+        <v>27.77</v>
+      </c>
+      <c r="BH9">
+        <v>50.18</v>
+      </c>
+      <c r="BI9">
+        <v>96.95999999999999</v>
+      </c>
+      <c r="BJ9">
+        <v>30.4</v>
+      </c>
+      <c r="BK9">
+        <v>4.3</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
-        <v>91797</v>
+        <v>7532</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10">
         <v>202005</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>2020</v>
       </c>
-      <c r="E10">
-        <v>114658750</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>6229027417</v>
       </c>
-      <c r="G10" t="s">
-        <v>70</v>
-      </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10">
+        <v>105</v>
+      </c>
+      <c r="J10">
         <v>2917051000</v>
+      </c>
+      <c r="K10">
+        <v>601.6636363636364</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
       </c>
       <c r="M10">
         <v>35658275</v>
@@ -1570,96 +2467,186 @@
         <v>635667</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>99.86</v>
       </c>
       <c r="Q10">
+        <v>0.14</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>29.57</v>
+      </c>
+      <c r="T10">
+        <v>6.68</v>
+      </c>
+      <c r="U10">
+        <v>22.82</v>
+      </c>
+      <c r="V10">
+        <v>40.78</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0.14</v>
+      </c>
+      <c r="Y10">
+        <v>41.5</v>
+      </c>
+      <c r="Z10">
+        <v>49.54</v>
+      </c>
+      <c r="AA10">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
         <v>2.88</v>
       </c>
-      <c r="R10">
+      <c r="AH10">
         <v>18.97</v>
       </c>
-      <c r="S10">
+      <c r="AI10">
         <v>42.79</v>
       </c>
-      <c r="T10">
+      <c r="AJ10">
         <v>22.27</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
         <v>0.28</v>
       </c>
-      <c r="Y10">
+      <c r="AO10">
         <v>12.81</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>97.27</v>
       </c>
-      <c r="AD10">
+      <c r="AT10">
         <v>2.45</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
         <v>0.28</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0.43</v>
+      </c>
+      <c r="AY10">
+        <v>2.45</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>19.25</v>
+      </c>
+      <c r="BB10">
+        <v>65.06</v>
+      </c>
+      <c r="BC10">
+        <v>12.81</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0.43</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>15.54</v>
+      </c>
+      <c r="BI10">
+        <v>85.17</v>
+      </c>
+      <c r="BJ10">
+        <v>30</v>
+      </c>
+      <c r="BK10">
+        <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
-        <v>91867</v>
+        <v>7618</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11">
         <v>202005</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2020</v>
       </c>
-      <c r="E11">
-        <v>11512209</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>4099606539</v>
       </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J11">
+        <v>2917051000</v>
+      </c>
+      <c r="K11">
         <v>40.3969696969697</v>
       </c>
-      <c r="K11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11">
-        <v>2917051000</v>
+      <c r="L11" t="s">
+        <v>108</v>
       </c>
       <c r="M11">
         <v>807605</v>
@@ -1671,96 +2658,186 @@
         <v>4894</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>89.14</v>
       </c>
       <c r="Q11">
+        <v>10.86</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>22.61</v>
+      </c>
+      <c r="T11">
+        <v>4.34</v>
+      </c>
+      <c r="U11">
+        <v>11.11</v>
+      </c>
+      <c r="V11">
+        <v>21.52</v>
+      </c>
+      <c r="W11">
+        <v>29.57</v>
+      </c>
+      <c r="X11">
+        <v>10.86</v>
+      </c>
+      <c r="Y11">
+        <v>27.65</v>
+      </c>
+      <c r="Z11">
+        <v>50.89</v>
+      </c>
+      <c r="AA11">
+        <v>21.46</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
         <v>8.81</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
         <v>10.22</v>
       </c>
-      <c r="T11">
+      <c r="AJ11">
         <v>7.15</v>
       </c>
-      <c r="U11">
+      <c r="AK11">
         <v>12.07</v>
       </c>
-      <c r="V11">
+      <c r="AL11">
         <v>7.02</v>
       </c>
-      <c r="W11">
+      <c r="AM11">
         <v>9.51</v>
       </c>
-      <c r="X11">
+      <c r="AN11">
         <v>25.54</v>
       </c>
-      <c r="Y11">
+      <c r="AO11">
         <v>19.67</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
         <v>9</v>
       </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>31.42</v>
       </c>
-      <c r="AD11">
+      <c r="AT11">
         <v>43.36</v>
       </c>
-      <c r="AE11">
+      <c r="AU11">
         <v>9.710000000000001</v>
       </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
         <v>6.51</v>
       </c>
+      <c r="AX11">
+        <v>26.69</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BA11">
+        <v>23.63</v>
+      </c>
+      <c r="BB11">
+        <v>18.45</v>
+      </c>
+      <c r="BC11">
+        <v>22.92</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>6.45</v>
+      </c>
+      <c r="BF11">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="BG11">
+        <v>31.1</v>
+      </c>
+      <c r="BH11">
+        <v>44.89</v>
+      </c>
+      <c r="BI11">
+        <v>83.97</v>
+      </c>
+      <c r="BJ11">
+        <v>33.3</v>
+      </c>
+      <c r="BK11">
+        <v>6.7</v>
+      </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
-        <v>113568</v>
+        <v>9318</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12">
         <v>202006</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2020</v>
       </c>
-      <c r="E12">
-        <v>11512209</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>4099606539</v>
       </c>
-      <c r="G12" t="s">
-        <v>71</v>
-      </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J12">
+        <v>2917051000</v>
+      </c>
+      <c r="K12">
         <v>40.3969696969697</v>
       </c>
-      <c r="K12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12">
-        <v>2917051000</v>
+      <c r="L12" t="s">
+        <v>108</v>
       </c>
       <c r="M12">
         <v>929005</v>
@@ -1772,96 +2849,186 @@
         <v>5410</v>
       </c>
       <c r="P12">
+        <v>86.56999999999999</v>
+      </c>
+      <c r="Q12">
+        <v>13.43</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>51.02</v>
+      </c>
+      <c r="T12">
+        <v>28.4</v>
+      </c>
+      <c r="U12">
+        <v>0.92</v>
+      </c>
+      <c r="V12">
+        <v>3.02</v>
+      </c>
+      <c r="W12">
+        <v>3.2</v>
+      </c>
+      <c r="X12">
+        <v>13.43</v>
+      </c>
+      <c r="Y12">
+        <v>31.3</v>
+      </c>
+      <c r="Z12">
+        <v>49.78</v>
+      </c>
+      <c r="AA12">
+        <v>18.92</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
         <v>5.37</v>
       </c>
-      <c r="Q12">
+      <c r="AG12">
         <v>4.98</v>
       </c>
-      <c r="R12">
+      <c r="AH12">
         <v>21.41</v>
       </c>
-      <c r="S12">
+      <c r="AI12">
         <v>10.54</v>
       </c>
-      <c r="T12">
+      <c r="AJ12">
         <v>2.23</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
         <v>8.380000000000001</v>
       </c>
-      <c r="W12">
+      <c r="AM12">
         <v>7.2</v>
       </c>
-      <c r="X12">
+      <c r="AN12">
         <v>18.27</v>
       </c>
-      <c r="Y12">
+      <c r="AO12">
         <v>21.61</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
         <v>5.37</v>
       </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
         <v>9.1</v>
       </c>
-      <c r="AD12">
+      <c r="AT12">
         <v>58.09</v>
       </c>
-      <c r="AE12">
+      <c r="AU12">
         <v>21.28</v>
       </c>
-      <c r="AF12">
+      <c r="AV12">
         <v>6.16</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>9.69</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>7.47</v>
+      </c>
+      <c r="BA12">
+        <v>48.13</v>
+      </c>
+      <c r="BB12">
+        <v>12.97</v>
+      </c>
+      <c r="BC12">
+        <v>21.74</v>
+      </c>
+      <c r="BD12">
+        <v>2.75</v>
+      </c>
+      <c r="BE12">
+        <v>3.14</v>
+      </c>
+      <c r="BF12">
+        <v>4.45</v>
+      </c>
+      <c r="BG12">
+        <v>21.41</v>
+      </c>
+      <c r="BH12">
+        <v>65.36</v>
+      </c>
+      <c r="BI12">
+        <v>80.75</v>
+      </c>
+      <c r="BJ12">
+        <v>37.9</v>
+      </c>
+      <c r="BK12">
+        <v>3.4</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
-        <v>114205</v>
+        <v>10027</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13">
         <v>202006</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2020</v>
       </c>
-      <c r="E13">
-        <v>118654268</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>1619201518</v>
       </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13">
+        <v>105</v>
+      </c>
+      <c r="J13">
         <v>2917051000</v>
+      </c>
+      <c r="K13">
+        <v>601.6636363636364</v>
+      </c>
+      <c r="L13" t="s">
+        <v>107</v>
       </c>
       <c r="M13">
         <v>28341707</v>
@@ -1873,96 +3040,186 @@
         <v>791591</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>77.69</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>22.31</v>
       </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>16.24</v>
+      </c>
+      <c r="T13">
         <v>1.8</v>
       </c>
-      <c r="S13">
+      <c r="U13">
+        <v>9.02</v>
+      </c>
+      <c r="V13">
+        <v>18.05</v>
+      </c>
+      <c r="W13">
+        <v>32.57</v>
+      </c>
+      <c r="X13">
+        <v>22.31</v>
+      </c>
+      <c r="Y13">
+        <v>40.36</v>
+      </c>
+      <c r="Z13">
+        <v>36.39</v>
+      </c>
+      <c r="AA13">
+        <v>23.25</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>1.8</v>
+      </c>
+      <c r="AI13">
         <v>31.33</v>
       </c>
-      <c r="T13">
+      <c r="AJ13">
         <v>25.57</v>
       </c>
-      <c r="U13">
+      <c r="AK13">
         <v>16.24</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
         <v>18.05</v>
       </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
         <v>7.01</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
         <v>25.57</v>
       </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
         <v>1.8</v>
       </c>
-      <c r="AD13">
+      <c r="AT13">
         <v>72.63</v>
       </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>47.58</v>
+      </c>
+      <c r="AY13">
+        <v>18.05</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>1.8</v>
+      </c>
+      <c r="BB13">
+        <v>32.57</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>25.57</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>16.24</v>
+      </c>
+      <c r="BG13">
+        <v>25.57</v>
+      </c>
+      <c r="BH13">
+        <v>41.81</v>
+      </c>
+      <c r="BI13">
+        <v>81.95</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:63">
       <c r="A14" s="1">
-        <v>135285</v>
+        <v>11027</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14">
         <v>202007</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>2020</v>
       </c>
-      <c r="E14">
-        <v>11512209</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
         <v>4099606539</v>
       </c>
-      <c r="G14" t="s">
-        <v>71</v>
-      </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J14">
+        <v>2917051000</v>
+      </c>
+      <c r="K14">
         <v>40.3969696969697</v>
       </c>
-      <c r="K14" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14">
-        <v>2917051000</v>
+      <c r="L14" t="s">
+        <v>108</v>
       </c>
       <c r="M14">
         <v>780448</v>
@@ -1974,96 +3231,186 @@
         <v>4990</v>
       </c>
       <c r="P14">
+        <v>88.87</v>
+      </c>
+      <c r="Q14">
+        <v>11.13</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>27.09</v>
+      </c>
+      <c r="T14">
+        <v>6.98</v>
+      </c>
+      <c r="U14">
+        <v>10.5</v>
+      </c>
+      <c r="V14">
+        <v>22.18</v>
+      </c>
+      <c r="W14">
+        <v>22.11</v>
+      </c>
+      <c r="X14">
+        <v>11.13</v>
+      </c>
+      <c r="Y14">
+        <v>39.25</v>
+      </c>
+      <c r="Z14">
+        <v>23.91</v>
+      </c>
+      <c r="AA14">
+        <v>36.83</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
         <v>3.56</v>
       </c>
-      <c r="Q14">
+      <c r="AG14">
         <v>3.56</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
         <v>14.11</v>
       </c>
-      <c r="T14">
+      <c r="AJ14">
         <v>8.539999999999999</v>
       </c>
-      <c r="U14">
+      <c r="AK14">
         <v>2.52</v>
       </c>
-      <c r="V14">
+      <c r="AL14">
         <v>5.86</v>
       </c>
-      <c r="W14">
+      <c r="AM14">
         <v>32.29</v>
       </c>
-      <c r="X14">
+      <c r="AN14">
         <v>7.5</v>
       </c>
-      <c r="Y14">
+      <c r="AO14">
         <v>22.05</v>
       </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
         <v>2.52</v>
       </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
         <v>15.44</v>
       </c>
-      <c r="AD14">
+      <c r="AT14">
         <v>44.1</v>
       </c>
-      <c r="AE14">
+      <c r="AU14">
         <v>31.7</v>
       </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
         <v>6.24</v>
       </c>
+      <c r="AX14">
+        <v>14.92</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>4.01</v>
+      </c>
+      <c r="BA14">
+        <v>42.32</v>
+      </c>
+      <c r="BB14">
+        <v>22.27</v>
+      </c>
+      <c r="BC14">
+        <v>16.48</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>2.52</v>
+      </c>
+      <c r="BF14">
+        <v>3.56</v>
+      </c>
+      <c r="BG14">
+        <v>18.49</v>
+      </c>
+      <c r="BH14">
+        <v>36.3</v>
+      </c>
+      <c r="BI14">
+        <v>82.63</v>
+      </c>
+      <c r="BJ14">
+        <v>51.9</v>
+      </c>
+      <c r="BK14">
+        <v>7.4</v>
+      </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:63">
       <c r="A15" s="1">
-        <v>135927</v>
+        <v>11739</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15">
         <v>202007</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>2020</v>
       </c>
-      <c r="E15">
-        <v>118654268</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
         <v>1619201518</v>
       </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15">
+        <v>105</v>
+      </c>
+      <c r="J15">
         <v>2917051000</v>
+      </c>
+      <c r="K15">
+        <v>601.6636363636364</v>
+      </c>
+      <c r="L15" t="s">
+        <v>107</v>
       </c>
       <c r="M15">
         <v>67586800</v>
@@ -2075,96 +3422,186 @@
         <v>732578</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>23.53</v>
+      </c>
+      <c r="T15">
+        <v>12.13</v>
+      </c>
+      <c r="U15">
+        <v>17.59</v>
+      </c>
+      <c r="V15">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="W15">
+        <v>37.54</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>28.29</v>
+      </c>
+      <c r="Z15">
+        <v>60.03</v>
+      </c>
+      <c r="AA15">
+        <v>11.68</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
         <v>4.79</v>
       </c>
-      <c r="S15">
+      <c r="AI15">
         <v>36.59</v>
       </c>
-      <c r="T15">
+      <c r="AJ15">
         <v>26.61</v>
       </c>
-      <c r="U15">
+      <c r="AK15">
         <v>4.56</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
         <v>5.32</v>
       </c>
-      <c r="X15">
+      <c r="AN15">
         <v>12.8</v>
       </c>
-      <c r="Y15">
+      <c r="AO15">
         <v>9.33</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
         <v>12.83</v>
       </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
         <v>18.73</v>
       </c>
-      <c r="AD15">
+      <c r="AT15">
         <v>38.81</v>
       </c>
-      <c r="AE15">
+      <c r="AU15">
         <v>7.61</v>
       </c>
-      <c r="AF15">
+      <c r="AV15">
         <v>9.23</v>
       </c>
-      <c r="AG15">
+      <c r="AW15">
         <v>12.8</v>
       </c>
+      <c r="AX15">
+        <v>4.56</v>
+      </c>
+      <c r="AY15">
+        <v>5.32</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>4.79</v>
+      </c>
+      <c r="BB15">
+        <v>63.17</v>
+      </c>
+      <c r="BC15">
+        <v>22.15</v>
+      </c>
+      <c r="BD15">
+        <v>6.93</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>4.56</v>
+      </c>
+      <c r="BG15">
+        <v>0.09</v>
+      </c>
+      <c r="BH15">
+        <v>38.53</v>
+      </c>
+      <c r="BI15">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="BJ15">
+        <v>12.5</v>
+      </c>
+      <c r="BK15">
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:63">
       <c r="A16" s="1">
-        <v>157009</v>
+        <v>12740</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16">
         <v>202008</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>2020</v>
       </c>
-      <c r="E16">
-        <v>11512209</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>4099606539</v>
       </c>
-      <c r="G16" t="s">
-        <v>71</v>
-      </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J16">
+        <v>2917051000</v>
+      </c>
+      <c r="K16">
         <v>40.3969696969697</v>
       </c>
-      <c r="K16" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16">
-        <v>2917051000</v>
+      <c r="L16" t="s">
+        <v>108</v>
       </c>
       <c r="M16">
         <v>660113</v>
@@ -2176,96 +3613,186 @@
         <v>3768</v>
       </c>
       <c r="P16">
+        <v>80.48</v>
+      </c>
+      <c r="Q16">
+        <v>19.52</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>20.21</v>
+      </c>
+      <c r="T16">
+        <v>24.4</v>
+      </c>
+      <c r="U16">
+        <v>9.93</v>
+      </c>
+      <c r="V16">
+        <v>21.66</v>
+      </c>
+      <c r="W16">
+        <v>4.28</v>
+      </c>
+      <c r="X16">
+        <v>19.52</v>
+      </c>
+      <c r="Y16">
+        <v>42.29</v>
+      </c>
+      <c r="Z16">
+        <v>31.25</v>
+      </c>
+      <c r="AA16">
+        <v>26.46</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
         <v>0.98</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
         <v>15.59</v>
       </c>
-      <c r="T16">
+      <c r="AJ16">
         <v>12.94</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
         <v>35.98</v>
       </c>
-      <c r="W16">
+      <c r="AM16">
         <v>4.8</v>
       </c>
-      <c r="X16">
+      <c r="AN16">
         <v>22.45</v>
       </c>
-      <c r="Y16">
+      <c r="AO16">
         <v>7.25</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
         <v>13.33</v>
       </c>
-      <c r="AD16">
+      <c r="AT16">
         <v>61.76</v>
       </c>
-      <c r="AE16">
+      <c r="AU16">
         <v>24.9</v>
       </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>33.63</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>5.29</v>
+      </c>
+      <c r="BA16">
+        <v>25.29</v>
+      </c>
+      <c r="BB16">
+        <v>29.9</v>
+      </c>
+      <c r="BC16">
+        <v>5.88</v>
+      </c>
+      <c r="BD16">
+        <v>14.31</v>
+      </c>
+      <c r="BE16">
+        <v>0.98</v>
+      </c>
+      <c r="BF16">
+        <v>21.67</v>
+      </c>
+      <c r="BG16">
+        <v>55.49</v>
+      </c>
+      <c r="BH16">
+        <v>68.73</v>
+      </c>
+      <c r="BI16">
+        <v>79.51000000000001</v>
+      </c>
+      <c r="BJ16">
+        <v>30.4</v>
+      </c>
+      <c r="BK16">
+        <v>21.7</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:63">
       <c r="A17" s="1">
-        <v>157651</v>
+        <v>13451</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17">
         <v>202008</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2020</v>
       </c>
-      <c r="E17">
-        <v>118654268</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
         <v>1619201518</v>
       </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17">
+        <v>105</v>
+      </c>
+      <c r="J17">
         <v>2917051000</v>
+      </c>
+      <c r="K17">
+        <v>601.6636363636364</v>
+      </c>
+      <c r="L17" t="s">
+        <v>107</v>
       </c>
       <c r="M17">
         <v>40460332</v>
@@ -2277,96 +3804,186 @@
         <v>560559</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>80.95999999999999</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>19.04</v>
       </c>
       <c r="R17">
-        <v>20.08</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>10.83</v>
+        <v>57.48</v>
       </c>
       <c r="T17">
-        <v>25.74</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>11.53</v>
+        <v>11.58</v>
       </c>
       <c r="V17">
         <v>0.25</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>30.58</v>
       </c>
       <c r="X17">
+        <v>0.11</v>
+      </c>
+      <c r="Y17">
+        <v>66.18000000000001</v>
+      </c>
+      <c r="Z17">
+        <v>13.49</v>
+      </c>
+      <c r="AA17">
+        <v>20.33</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>20.08</v>
+      </c>
+      <c r="AI17">
+        <v>10.83</v>
+      </c>
+      <c r="AJ17">
+        <v>25.74</v>
+      </c>
+      <c r="AK17">
+        <v>11.53</v>
+      </c>
+      <c r="AL17">
+        <v>0.25</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
         <v>16.38</v>
       </c>
-      <c r="Y17">
+      <c r="AO17">
         <v>15.18</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
         <v>35.67</v>
       </c>
-      <c r="AD17">
+      <c r="AT17">
         <v>64.33</v>
       </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>32.49</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>6.32</v>
+      </c>
+      <c r="BA17">
+        <v>14.02</v>
+      </c>
+      <c r="BB17">
+        <v>42.12</v>
+      </c>
+      <c r="BC17">
+        <v>5.06</v>
+      </c>
+      <c r="BD17">
+        <v>25.74</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>11.53</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>12.67</v>
+      </c>
+      <c r="BI17">
+        <v>62.48</v>
+      </c>
+      <c r="BJ17">
+        <v>25</v>
+      </c>
+      <c r="BK17">
+        <v>16.7</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:63">
       <c r="A18" s="1">
-        <v>178720</v>
+        <v>14451</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18">
         <v>202009</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>2020</v>
       </c>
-      <c r="E18">
-        <v>11512209</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <v>4099606539</v>
       </c>
-      <c r="G18" t="s">
-        <v>71</v>
-      </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J18">
+        <v>2917051000</v>
+      </c>
+      <c r="K18">
         <v>40.3969696969697</v>
       </c>
-      <c r="K18" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18">
-        <v>2917051000</v>
+      <c r="L18" t="s">
+        <v>108</v>
       </c>
       <c r="M18">
         <v>2382454</v>
@@ -2378,96 +3995,186 @@
         <v>9752</v>
       </c>
       <c r="P18">
+        <v>99.18000000000001</v>
+      </c>
+      <c r="Q18">
+        <v>0.82</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>10.19</v>
+      </c>
+      <c r="T18">
+        <v>20.4</v>
+      </c>
+      <c r="U18">
+        <v>7.67</v>
+      </c>
+      <c r="V18">
+        <v>40.68</v>
+      </c>
+      <c r="W18">
+        <v>20.24</v>
+      </c>
+      <c r="X18">
+        <v>0.82</v>
+      </c>
+      <c r="Y18">
+        <v>26.12</v>
+      </c>
+      <c r="Z18">
+        <v>16.27</v>
+      </c>
+      <c r="AA18">
+        <v>57.6</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
         <v>5.77</v>
       </c>
-      <c r="Q18">
+      <c r="AG18">
         <v>0.71</v>
       </c>
-      <c r="R18">
+      <c r="AH18">
         <v>2.19</v>
       </c>
-      <c r="S18">
+      <c r="AI18">
         <v>38.12</v>
       </c>
-      <c r="T18">
+      <c r="AJ18">
         <v>11.05</v>
       </c>
-      <c r="U18">
+      <c r="AK18">
         <v>3.14</v>
       </c>
-      <c r="V18">
+      <c r="AL18">
         <v>3.16</v>
       </c>
-      <c r="W18">
+      <c r="AM18">
         <v>7.06</v>
       </c>
-      <c r="X18">
+      <c r="AN18">
         <v>11.02</v>
       </c>
-      <c r="Y18">
+      <c r="AO18">
         <v>17.78</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
         <v>20.6</v>
       </c>
-      <c r="AD18">
+      <c r="AT18">
         <v>63.03</v>
       </c>
-      <c r="AE18">
+      <c r="AU18">
         <v>7.36</v>
       </c>
-      <c r="AF18">
+      <c r="AV18">
         <v>9.02</v>
       </c>
-      <c r="AG18">
-        <v>0</v>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>12.89</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>12.84</v>
+      </c>
+      <c r="BA18">
+        <v>14</v>
+      </c>
+      <c r="BB18">
+        <v>48.59</v>
+      </c>
+      <c r="BC18">
+        <v>11.67</v>
+      </c>
+      <c r="BD18">
+        <v>0.67</v>
+      </c>
+      <c r="BE18">
+        <v>2.03</v>
+      </c>
+      <c r="BF18">
+        <v>6.87</v>
+      </c>
+      <c r="BG18">
+        <v>16.7</v>
+      </c>
+      <c r="BH18">
+        <v>33.86</v>
+      </c>
+      <c r="BI18">
+        <v>94.45999999999999</v>
+      </c>
+      <c r="BJ18">
+        <v>55.3</v>
+      </c>
+      <c r="BK18">
+        <v>18.4</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:63">
       <c r="A19" s="1">
-        <v>179363</v>
+        <v>15163</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19">
         <v>202009</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>2020</v>
       </c>
-      <c r="E19">
-        <v>118654268</v>
-      </c>
-      <c r="F19">
+      <c r="G19">
         <v>1619201518</v>
       </c>
-      <c r="G19" t="s">
-        <v>70</v>
-      </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19">
+        <v>105</v>
+      </c>
+      <c r="J19">
         <v>2917051000</v>
+      </c>
+      <c r="K19">
+        <v>601.6636363636364</v>
+      </c>
+      <c r="L19" t="s">
+        <v>107</v>
       </c>
       <c r="M19">
         <v>9759129</v>
@@ -2479,7 +4186,7 @@
         <v>954810</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2491,23 +4198,23 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
       <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <v>100</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
       <c r="Z19">
         <v>0</v>
       </c>
@@ -2521,54 +4228,144 @@
         <v>0</v>
       </c>
       <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
         <v>100</v>
       </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>100</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>100</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>100</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:63">
       <c r="A20" s="1">
-        <v>200448</v>
+        <v>16156</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20">
         <v>202010</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>2020</v>
       </c>
-      <c r="E20">
-        <v>11512209</v>
-      </c>
-      <c r="F20">
+      <c r="G20">
         <v>4099606539</v>
       </c>
-      <c r="G20" t="s">
-        <v>71</v>
-      </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I20" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J20">
+        <v>2917051000</v>
+      </c>
+      <c r="K20">
         <v>40.3969696969697</v>
       </c>
-      <c r="K20" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20">
-        <v>2917051000</v>
+      <c r="L20" t="s">
+        <v>108</v>
       </c>
       <c r="M20">
         <v>2038781</v>
@@ -2580,96 +4377,186 @@
         <v>12331</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="Q20">
+        <v>3.24</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>22.99</v>
+      </c>
+      <c r="T20">
+        <v>1.01</v>
+      </c>
+      <c r="U20">
+        <v>15.43</v>
+      </c>
+      <c r="V20">
+        <v>24.23</v>
+      </c>
+      <c r="W20">
+        <v>33.1</v>
+      </c>
+      <c r="X20">
+        <v>3.24</v>
+      </c>
+      <c r="Y20">
+        <v>12.9</v>
+      </c>
+      <c r="Z20">
+        <v>66.02</v>
+      </c>
+      <c r="AA20">
+        <v>21.08</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
         <v>12.06</v>
       </c>
-      <c r="R20">
+      <c r="AH20">
         <v>1.22</v>
       </c>
-      <c r="S20">
+      <c r="AI20">
         <v>31.63</v>
       </c>
-      <c r="T20">
+      <c r="AJ20">
         <v>9.880000000000001</v>
       </c>
-      <c r="U20">
+      <c r="AK20">
         <v>4.05</v>
       </c>
-      <c r="V20">
+      <c r="AL20">
         <v>6.21</v>
       </c>
-      <c r="W20">
+      <c r="AM20">
         <v>3.78</v>
       </c>
-      <c r="X20">
+      <c r="AN20">
         <v>19.21</v>
       </c>
-      <c r="Y20">
+      <c r="AO20">
         <v>11.96</v>
       </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
         <v>19.87</v>
       </c>
-      <c r="AD20">
+      <c r="AT20">
         <v>59.17</v>
       </c>
-      <c r="AE20">
+      <c r="AU20">
         <v>2.84</v>
       </c>
-      <c r="AF20">
+      <c r="AV20">
         <v>0.38</v>
       </c>
-      <c r="AG20">
+      <c r="AW20">
         <v>17.74</v>
       </c>
+      <c r="AX20">
+        <v>22.02</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>3.22</v>
+      </c>
+      <c r="BA20">
+        <v>20.55</v>
+      </c>
+      <c r="BB20">
+        <v>51.98</v>
+      </c>
+      <c r="BC20">
+        <v>2.23</v>
+      </c>
+      <c r="BD20">
+        <v>1.01</v>
+      </c>
+      <c r="BE20">
+        <v>1.22</v>
+      </c>
+      <c r="BF20">
+        <v>5.27</v>
+      </c>
+      <c r="BG20">
+        <v>6.64</v>
+      </c>
+      <c r="BH20">
+        <v>59.53</v>
+      </c>
+      <c r="BI20">
+        <v>88.67</v>
+      </c>
+      <c r="BJ20">
+        <v>30</v>
+      </c>
+      <c r="BK20">
+        <v>6.7</v>
+      </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:63">
       <c r="A21" s="1">
-        <v>222196</v>
+        <v>17861</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21">
         <v>202011</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>2020</v>
       </c>
-      <c r="E21">
-        <v>11512209</v>
-      </c>
-      <c r="F21">
+      <c r="G21">
         <v>4099606539</v>
       </c>
-      <c r="G21" t="s">
-        <v>71</v>
-      </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I21" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J21">
+        <v>2917051000</v>
+      </c>
+      <c r="K21">
         <v>40.3969696969697</v>
       </c>
-      <c r="K21" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21">
-        <v>2917051000</v>
+      <c r="L21" t="s">
+        <v>108</v>
       </c>
       <c r="M21">
         <v>587367</v>
@@ -2681,96 +4568,186 @@
         <v>3900</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>93.92</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>6.08</v>
       </c>
       <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>10.07</v>
+      </c>
+      <c r="T21">
+        <v>26.88</v>
+      </c>
+      <c r="U21">
+        <v>13.01</v>
+      </c>
+      <c r="V21">
+        <v>23.93</v>
+      </c>
+      <c r="W21">
+        <v>20.04</v>
+      </c>
+      <c r="X21">
+        <v>6.08</v>
+      </c>
+      <c r="Y21">
+        <v>31.72</v>
+      </c>
+      <c r="Z21">
+        <v>45.39</v>
+      </c>
+      <c r="AA21">
+        <v>22.89</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
         <v>3.04</v>
       </c>
-      <c r="S21">
+      <c r="AI21">
         <v>7.66</v>
       </c>
-      <c r="T21">
+      <c r="AJ21">
         <v>6.61</v>
       </c>
-      <c r="U21">
+      <c r="AK21">
         <v>9.23</v>
       </c>
-      <c r="V21">
+      <c r="AL21">
         <v>14.69</v>
       </c>
-      <c r="W21">
+      <c r="AM21">
         <v>11.75</v>
       </c>
-      <c r="X21">
+      <c r="AN21">
         <v>17.21</v>
       </c>
-      <c r="Y21">
+      <c r="AO21">
         <v>29.8</v>
       </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
         <v>28.23</v>
       </c>
-      <c r="AD21">
+      <c r="AT21">
         <v>47.85</v>
       </c>
-      <c r="AE21">
+      <c r="AU21">
         <v>15.84</v>
       </c>
-      <c r="AF21">
+      <c r="AV21">
         <v>3.04</v>
       </c>
-      <c r="AG21">
+      <c r="AW21">
         <v>5.04</v>
       </c>
+      <c r="AX21">
+        <v>15.01</v>
+      </c>
+      <c r="AY21">
+        <v>5.67</v>
+      </c>
+      <c r="AZ21">
+        <v>6.3</v>
+      </c>
+      <c r="BA21">
+        <v>30.33</v>
+      </c>
+      <c r="BB21">
+        <v>12.7</v>
+      </c>
+      <c r="BC21">
+        <v>30.01</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>3.57</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>15.74</v>
+      </c>
+      <c r="BH21">
+        <v>47.22</v>
+      </c>
+      <c r="BI21">
+        <v>79.95999999999999</v>
+      </c>
+      <c r="BJ21">
+        <v>53.8</v>
+      </c>
+      <c r="BK21">
+        <v>3.8</v>
+      </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:63">
       <c r="A22" s="1">
-        <v>244019</v>
+        <v>19567</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22">
         <v>202012</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>2020</v>
       </c>
-      <c r="E22">
-        <v>11512209</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
         <v>4099606539</v>
       </c>
-      <c r="G22" t="s">
-        <v>71</v>
-      </c>
       <c r="H22" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I22" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J22">
+        <v>2917051000</v>
+      </c>
+      <c r="K22">
         <v>40.3969696969697</v>
       </c>
-      <c r="K22" t="s">
-        <v>79</v>
-      </c>
-      <c r="L22">
-        <v>2917051000</v>
+      <c r="L22" t="s">
+        <v>108</v>
       </c>
       <c r="M22">
         <v>1310063</v>
@@ -2782,96 +4759,186 @@
         <v>7984</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>98.36</v>
       </c>
       <c r="Q22">
+        <v>1.64</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>15.07</v>
+      </c>
+      <c r="T22">
+        <v>2.9</v>
+      </c>
+      <c r="U22">
+        <v>59.22</v>
+      </c>
+      <c r="V22">
+        <v>15.38</v>
+      </c>
+      <c r="W22">
+        <v>5.79</v>
+      </c>
+      <c r="X22">
+        <v>1.64</v>
+      </c>
+      <c r="Y22">
+        <v>19.02</v>
+      </c>
+      <c r="Z22">
+        <v>17.46</v>
+      </c>
+      <c r="AA22">
+        <v>63.52</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
         <v>0.59</v>
       </c>
-      <c r="R22">
+      <c r="AH22">
         <v>1.33</v>
       </c>
-      <c r="S22">
+      <c r="AI22">
         <v>8.529999999999999</v>
       </c>
-      <c r="T22">
+      <c r="AJ22">
         <v>2.19</v>
       </c>
-      <c r="U22">
+      <c r="AK22">
         <v>5.79</v>
       </c>
-      <c r="V22">
+      <c r="AL22">
         <v>1.25</v>
       </c>
-      <c r="W22">
+      <c r="AM22">
         <v>7.95</v>
       </c>
-      <c r="X22">
+      <c r="AN22">
         <v>10.45</v>
       </c>
-      <c r="Y22">
+      <c r="AO22">
         <v>61.92</v>
       </c>
-      <c r="Z22">
+      <c r="AP22">
         <v>1.33</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
         <v>64.19</v>
       </c>
-      <c r="AD22">
+      <c r="AT22">
         <v>25.75</v>
       </c>
-      <c r="AE22">
+      <c r="AU22">
         <v>5.01</v>
       </c>
-      <c r="AF22">
+      <c r="AV22">
         <v>3.72</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>9.51</v>
+      </c>
+      <c r="AY22">
+        <v>0.63</v>
+      </c>
+      <c r="AZ22">
+        <v>2.43</v>
+      </c>
+      <c r="BA22">
+        <v>10.37</v>
+      </c>
+      <c r="BB22">
+        <v>19.92</v>
+      </c>
+      <c r="BC22">
+        <v>57.14</v>
+      </c>
+      <c r="BD22">
+        <v>1.25</v>
+      </c>
+      <c r="BE22">
+        <v>5.79</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>11.31</v>
+      </c>
+      <c r="BH22">
+        <v>78.28</v>
+      </c>
+      <c r="BI22">
+        <v>88.84999999999999</v>
+      </c>
+      <c r="BJ22">
+        <v>38.7</v>
+      </c>
+      <c r="BK22">
+        <v>3.2</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:63">
       <c r="A23" s="1">
-        <v>265842</v>
+        <v>21269</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23">
         <v>202101</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>2021</v>
       </c>
-      <c r="E23">
-        <v>11512209</v>
-      </c>
-      <c r="F23">
+      <c r="G23">
         <v>4099606539</v>
       </c>
-      <c r="G23" t="s">
-        <v>71</v>
-      </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I23" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J23">
+        <v>2917051000</v>
+      </c>
+      <c r="K23">
         <v>40.3969696969697</v>
       </c>
-      <c r="K23" t="s">
-        <v>79</v>
-      </c>
-      <c r="L23">
-        <v>2917051000</v>
+      <c r="L23" t="s">
+        <v>108</v>
       </c>
       <c r="M23">
         <v>340758</v>
@@ -2883,96 +4950,186 @@
         <v>3300</v>
       </c>
       <c r="P23">
+        <v>100</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>33.48</v>
+      </c>
+      <c r="T23">
+        <v>21.52</v>
+      </c>
+      <c r="U23">
+        <v>29.7</v>
+      </c>
+      <c r="V23">
+        <v>10.3</v>
+      </c>
+      <c r="W23">
+        <v>5</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>47.42</v>
+      </c>
+      <c r="Z23">
+        <v>40.45</v>
+      </c>
+      <c r="AA23">
+        <v>12.12</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
         <v>7.42</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
         <v>13.03</v>
       </c>
-      <c r="S23">
+      <c r="AI23">
         <v>8.789999999999999</v>
       </c>
-      <c r="T23">
+      <c r="AJ23">
         <v>2.27</v>
       </c>
-      <c r="U23">
+      <c r="AK23">
         <v>7.42</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
         <v>19.09</v>
       </c>
-      <c r="X23">
+      <c r="AN23">
         <v>13.79</v>
       </c>
-      <c r="Y23">
+      <c r="AO23">
         <v>28.18</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
         <v>7.42</v>
       </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
         <v>11.97</v>
       </c>
-      <c r="AD23">
+      <c r="AT23">
         <v>66.20999999999999</v>
       </c>
-      <c r="AE23">
+      <c r="AU23">
         <v>10</v>
       </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
         <v>4.39</v>
       </c>
+      <c r="AX23">
+        <v>27.27</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>10</v>
+      </c>
+      <c r="BA23">
+        <v>28.48</v>
+      </c>
+      <c r="BB23">
+        <v>23.03</v>
+      </c>
+      <c r="BC23">
+        <v>11.21</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>7.42</v>
+      </c>
+      <c r="BF23">
+        <v>7.42</v>
+      </c>
+      <c r="BG23">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="BH23">
+        <v>45.61</v>
+      </c>
+      <c r="BI23">
+        <v>64.09</v>
+      </c>
+      <c r="BJ23">
+        <v>66.7</v>
+      </c>
+      <c r="BK23">
+        <v>11.1</v>
+      </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:63">
       <c r="A24" s="1">
-        <v>287666</v>
+        <v>22969</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24">
         <v>202102</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>2021</v>
       </c>
-      <c r="E24">
-        <v>11512209</v>
-      </c>
-      <c r="F24">
+      <c r="G24">
         <v>4099606539</v>
       </c>
-      <c r="G24" t="s">
-        <v>71</v>
-      </c>
       <c r="H24" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I24" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J24">
+        <v>2917051000</v>
+      </c>
+      <c r="K24">
         <v>40.3969696969697</v>
       </c>
-      <c r="K24" t="s">
-        <v>79</v>
-      </c>
-      <c r="L24">
-        <v>2917051000</v>
+      <c r="L24" t="s">
+        <v>108</v>
       </c>
       <c r="M24">
         <v>784715</v>
@@ -2984,96 +5141,186 @@
         <v>4917</v>
       </c>
       <c r="P24">
+        <v>100</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.22</v>
+      </c>
+      <c r="T24">
+        <v>38.29</v>
+      </c>
+      <c r="U24">
+        <v>18.23</v>
+      </c>
+      <c r="V24">
+        <v>22.72</v>
+      </c>
+      <c r="W24">
+        <v>5.54</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>18.51</v>
+      </c>
+      <c r="Z24">
+        <v>44.67</v>
+      </c>
+      <c r="AA24">
+        <v>36.82</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
         <v>21.34</v>
       </c>
-      <c r="Q24">
+      <c r="AG24">
         <v>7.39</v>
       </c>
-      <c r="R24">
+      <c r="AH24">
         <v>1.13</v>
       </c>
-      <c r="S24">
+      <c r="AI24">
         <v>2.19</v>
       </c>
-      <c r="T24">
+      <c r="AJ24">
         <v>14.86</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
         <v>8.300000000000001</v>
       </c>
-      <c r="W24">
+      <c r="AM24">
         <v>11.09</v>
       </c>
-      <c r="X24">
+      <c r="AN24">
         <v>8.75</v>
       </c>
-      <c r="Y24">
+      <c r="AO24">
         <v>24.96</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
         <v>2.64</v>
       </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
         <v>31.98</v>
       </c>
-      <c r="AD24">
+      <c r="AT24">
         <v>54.37</v>
       </c>
-      <c r="AE24">
+      <c r="AU24">
         <v>8.82</v>
       </c>
-      <c r="AF24">
+      <c r="AV24">
         <v>2.19</v>
       </c>
-      <c r="AG24">
-        <v>0</v>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>40.65</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>2.26</v>
+      </c>
+      <c r="BA24">
+        <v>15.38</v>
+      </c>
+      <c r="BB24">
+        <v>28.96</v>
+      </c>
+      <c r="BC24">
+        <v>12.75</v>
+      </c>
+      <c r="BD24">
+        <v>14.86</v>
+      </c>
+      <c r="BE24">
+        <v>6.33</v>
+      </c>
+      <c r="BF24">
+        <v>27</v>
+      </c>
+      <c r="BG24">
+        <v>34.09</v>
+      </c>
+      <c r="BH24">
+        <v>43.06</v>
+      </c>
+      <c r="BI24">
+        <v>67.5</v>
+      </c>
+      <c r="BJ24">
+        <v>48.1</v>
+      </c>
+      <c r="BK24">
+        <v>7.4</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:63">
       <c r="A25" s="1">
-        <v>309505</v>
+        <v>24673</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25">
         <v>202103</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>2021</v>
       </c>
-      <c r="E25">
-        <v>11512209</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
         <v>4099606539</v>
       </c>
-      <c r="G25" t="s">
-        <v>71</v>
-      </c>
       <c r="H25" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I25" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J25">
+        <v>2917051000</v>
+      </c>
+      <c r="K25">
         <v>40.3969696969697</v>
       </c>
-      <c r="K25" t="s">
-        <v>79</v>
-      </c>
-      <c r="L25">
-        <v>2917051000</v>
+      <c r="L25" t="s">
+        <v>108</v>
       </c>
       <c r="M25">
         <v>758655</v>
@@ -3085,96 +5332,186 @@
         <v>4182</v>
       </c>
       <c r="P25">
+        <v>100</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>16.81</v>
+      </c>
+      <c r="T25">
+        <v>24.47</v>
+      </c>
+      <c r="U25">
+        <v>24.68</v>
+      </c>
+      <c r="V25">
+        <v>16.6</v>
+      </c>
+      <c r="W25">
+        <v>17.44</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>44.87</v>
+      </c>
+      <c r="Z25">
+        <v>19.76</v>
+      </c>
+      <c r="AA25">
+        <v>35.37</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
         <v>4.59</v>
       </c>
-      <c r="Q25">
+      <c r="AG25">
         <v>3.95</v>
       </c>
-      <c r="R25">
+      <c r="AH25">
         <v>4.59</v>
       </c>
-      <c r="S25">
+      <c r="AI25">
         <v>13.5</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
         <v>11.27</v>
       </c>
-      <c r="V25">
+      <c r="AL25">
         <v>5.6</v>
       </c>
-      <c r="W25">
+      <c r="AM25">
         <v>10.91</v>
       </c>
-      <c r="X25">
+      <c r="AN25">
         <v>12.71</v>
       </c>
-      <c r="Y25">
+      <c r="AO25">
         <v>32.88</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
         <v>2.51</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
         <v>26.13</v>
       </c>
-      <c r="AD25">
+      <c r="AT25">
         <v>55.2</v>
       </c>
-      <c r="AE25">
+      <c r="AU25">
         <v>13.21</v>
       </c>
-      <c r="AF25">
+      <c r="AV25">
         <v>2.23</v>
       </c>
-      <c r="AG25">
+      <c r="AW25">
         <v>0.72</v>
       </c>
+      <c r="AX25">
+        <v>28.93</v>
+      </c>
+      <c r="AY25">
+        <v>7.75</v>
+      </c>
+      <c r="AZ25">
+        <v>2.15</v>
+      </c>
+      <c r="BA25">
+        <v>19.1</v>
+      </c>
+      <c r="BB25">
+        <v>13.64</v>
+      </c>
+      <c r="BC25">
+        <v>28.43</v>
+      </c>
+      <c r="BD25">
+        <v>2.08</v>
+      </c>
+      <c r="BE25">
+        <v>4.59</v>
+      </c>
+      <c r="BF25">
+        <v>13.07</v>
+      </c>
+      <c r="BG25">
+        <v>25.84</v>
+      </c>
+      <c r="BH25">
+        <v>50.68</v>
+      </c>
+      <c r="BI25">
+        <v>81.98</v>
+      </c>
+      <c r="BJ25">
+        <v>50</v>
+      </c>
+      <c r="BK25">
+        <v>13.3</v>
+      </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:63">
       <c r="A26" s="1">
-        <v>331468</v>
+        <v>26384</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26">
         <v>202104</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>2021</v>
       </c>
-      <c r="E26">
-        <v>11512209</v>
-      </c>
-      <c r="F26">
+      <c r="G26">
         <v>4099606539</v>
       </c>
-      <c r="G26" t="s">
-        <v>71</v>
-      </c>
       <c r="H26" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I26" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J26">
+        <v>2917051000</v>
+      </c>
+      <c r="K26">
         <v>40.3969696969697</v>
       </c>
-      <c r="K26" t="s">
-        <v>79</v>
-      </c>
-      <c r="L26">
-        <v>2917051000</v>
+      <c r="L26" t="s">
+        <v>108</v>
       </c>
       <c r="M26">
         <v>933710</v>
@@ -3186,96 +5523,186 @@
         <v>5031</v>
       </c>
       <c r="P26">
+        <v>100</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>17.72</v>
+      </c>
+      <c r="T26">
+        <v>4.2</v>
+      </c>
+      <c r="U26">
+        <v>20.61</v>
+      </c>
+      <c r="V26">
+        <v>44.8</v>
+      </c>
+      <c r="W26">
+        <v>12.66</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>25.67</v>
+      </c>
+      <c r="Z26">
+        <v>39.81</v>
+      </c>
+      <c r="AA26">
+        <v>34.53</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
         <v>10.77</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
         <v>26.79</v>
       </c>
-      <c r="S26">
+      <c r="AI26">
         <v>3.38</v>
       </c>
-      <c r="T26">
+      <c r="AJ26">
         <v>2.39</v>
       </c>
-      <c r="U26">
+      <c r="AK26">
         <v>3.44</v>
       </c>
-      <c r="V26">
+      <c r="AL26">
         <v>7.28</v>
       </c>
-      <c r="W26">
+      <c r="AM26">
         <v>8.210000000000001</v>
       </c>
-      <c r="X26">
+      <c r="AN26">
         <v>21.67</v>
       </c>
-      <c r="Y26">
+      <c r="AO26">
         <v>16.07</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
         <v>2.62</v>
       </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
         <v>11.24</v>
       </c>
-      <c r="AD26">
+      <c r="AT26">
         <v>69.25</v>
       </c>
-      <c r="AE26">
+      <c r="AU26">
         <v>13.51</v>
       </c>
-      <c r="AF26">
+      <c r="AV26">
         <v>1.69</v>
       </c>
-      <c r="AG26">
+      <c r="AW26">
         <v>1.69</v>
       </c>
+      <c r="AX26">
+        <v>42.22</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>6.64</v>
+      </c>
+      <c r="BA26">
+        <v>34.83</v>
+      </c>
+      <c r="BB26">
+        <v>12</v>
+      </c>
+      <c r="BC26">
+        <v>4.31</v>
+      </c>
+      <c r="BD26">
+        <v>2.39</v>
+      </c>
+      <c r="BE26">
+        <v>2.62</v>
+      </c>
+      <c r="BF26">
+        <v>16.83</v>
+      </c>
+      <c r="BG26">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="BH26">
+        <v>30.87</v>
+      </c>
+      <c r="BI26">
+        <v>76.88</v>
+      </c>
+      <c r="BJ26">
+        <v>46.7</v>
+      </c>
+      <c r="BK26">
+        <v>16.7</v>
+      </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:63">
       <c r="A27" s="1">
-        <v>353473</v>
+        <v>28097</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27">
         <v>202105</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>2021</v>
       </c>
-      <c r="E27">
-        <v>11512209</v>
-      </c>
-      <c r="F27">
+      <c r="G27">
         <v>4099606539</v>
       </c>
-      <c r="G27" t="s">
-        <v>71</v>
-      </c>
       <c r="H27" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I27" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J27">
+        <v>2917051000</v>
+      </c>
+      <c r="K27">
         <v>40.3969696969697</v>
       </c>
-      <c r="K27" t="s">
-        <v>79</v>
-      </c>
-      <c r="L27">
-        <v>2917051000</v>
+      <c r="L27" t="s">
+        <v>108</v>
       </c>
       <c r="M27">
         <v>648399</v>
@@ -3287,96 +5714,186 @@
         <v>3718</v>
       </c>
       <c r="P27">
+        <v>100</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>49.53</v>
+      </c>
+      <c r="T27">
+        <v>7.44</v>
+      </c>
+      <c r="U27">
+        <v>2.29</v>
+      </c>
+      <c r="V27">
+        <v>23.89</v>
+      </c>
+      <c r="W27">
+        <v>16.85</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>28.72</v>
+      </c>
+      <c r="Z27">
+        <v>50.47</v>
+      </c>
+      <c r="AA27">
+        <v>20.81</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
         <v>8.23</v>
       </c>
-      <c r="Q27">
+      <c r="AG27">
         <v>7.44</v>
       </c>
-      <c r="R27">
+      <c r="AH27">
         <v>12.97</v>
       </c>
-      <c r="S27">
+      <c r="AI27">
         <v>4.59</v>
       </c>
-      <c r="T27">
+      <c r="AJ27">
         <v>5.06</v>
       </c>
-      <c r="U27">
+      <c r="AK27">
         <v>2.37</v>
       </c>
-      <c r="V27">
+      <c r="AL27">
         <v>5.06</v>
       </c>
-      <c r="W27">
+      <c r="AM27">
         <v>8.470000000000001</v>
       </c>
-      <c r="X27">
+      <c r="AN27">
         <v>18.51</v>
       </c>
-      <c r="Y27">
+      <c r="AO27">
         <v>27.29</v>
       </c>
-      <c r="Z27">
+      <c r="AP27">
         <v>3.88</v>
       </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
         <v>24.68</v>
       </c>
-      <c r="AD27">
+      <c r="AT27">
         <v>52.29</v>
       </c>
-      <c r="AE27">
+      <c r="AU27">
         <v>14.08</v>
       </c>
-      <c r="AF27">
+      <c r="AV27">
         <v>1.19</v>
       </c>
-      <c r="AG27">
+      <c r="AW27">
         <v>3.88</v>
       </c>
+      <c r="AX27">
+        <v>34.18</v>
+      </c>
+      <c r="AY27">
+        <v>1.19</v>
+      </c>
+      <c r="AZ27">
+        <v>1.19</v>
+      </c>
+      <c r="BA27">
+        <v>24.92</v>
+      </c>
+      <c r="BB27">
+        <v>25.55</v>
+      </c>
+      <c r="BC27">
+        <v>12.97</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>6.25</v>
+      </c>
+      <c r="BF27">
+        <v>9.41</v>
+      </c>
+      <c r="BG27">
+        <v>9.18</v>
+      </c>
+      <c r="BH27">
+        <v>43.35</v>
+      </c>
+      <c r="BI27">
+        <v>73.81</v>
+      </c>
+      <c r="BJ27">
+        <v>51.5</v>
+      </c>
+      <c r="BK27">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:63">
       <c r="A28" s="1">
-        <v>375530</v>
+        <v>29812</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28">
         <v>202106</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>2021</v>
       </c>
-      <c r="E28">
-        <v>11512209</v>
-      </c>
-      <c r="F28">
+      <c r="G28">
         <v>4099606539</v>
       </c>
-      <c r="G28" t="s">
-        <v>71</v>
-      </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I28" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J28">
+        <v>2917051000</v>
+      </c>
+      <c r="K28">
         <v>40.3969696969697</v>
       </c>
-      <c r="K28" t="s">
-        <v>79</v>
-      </c>
-      <c r="L28">
-        <v>2917051000</v>
+      <c r="L28" t="s">
+        <v>108</v>
       </c>
       <c r="M28">
         <v>975754</v>
@@ -3388,96 +5905,186 @@
         <v>5126</v>
       </c>
       <c r="P28">
+        <v>100</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>18.53</v>
+      </c>
+      <c r="T28">
+        <v>15.26</v>
+      </c>
+      <c r="U28">
+        <v>28.8</v>
+      </c>
+      <c r="V28">
+        <v>19.68</v>
+      </c>
+      <c r="W28">
+        <v>17.73</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>56.86</v>
+      </c>
+      <c r="Z28">
+        <v>31.96</v>
+      </c>
+      <c r="AA28">
+        <v>11.19</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
         <v>4.27</v>
       </c>
-      <c r="Q28">
+      <c r="AG28">
         <v>3.17</v>
       </c>
-      <c r="R28">
+      <c r="AH28">
         <v>0.97</v>
       </c>
-      <c r="S28">
+      <c r="AI28">
         <v>7.31</v>
       </c>
-      <c r="T28">
+      <c r="AJ28">
         <v>4.79</v>
       </c>
-      <c r="U28">
+      <c r="AK28">
         <v>19.42</v>
       </c>
-      <c r="V28">
+      <c r="AL28">
         <v>1.88</v>
       </c>
-      <c r="W28">
+      <c r="AM28">
         <v>9.130000000000001</v>
       </c>
-      <c r="X28">
+      <c r="AN28">
         <v>9.51</v>
       </c>
-      <c r="Y28">
+      <c r="AO28">
         <v>39.55</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
         <v>18.25</v>
       </c>
-      <c r="AD28">
+      <c r="AT28">
         <v>46.8</v>
       </c>
-      <c r="AE28">
+      <c r="AU28">
         <v>31.2</v>
       </c>
-      <c r="AF28">
+      <c r="AV28">
         <v>1.88</v>
       </c>
-      <c r="AG28">
+      <c r="AW28">
         <v>1.88</v>
       </c>
+      <c r="AX28">
+        <v>29.58</v>
+      </c>
+      <c r="AY28">
+        <v>2.27</v>
+      </c>
+      <c r="AZ28">
+        <v>5.11</v>
+      </c>
+      <c r="BA28">
+        <v>18.38</v>
+      </c>
+      <c r="BB28">
+        <v>23.75</v>
+      </c>
+      <c r="BC28">
+        <v>20.91</v>
+      </c>
+      <c r="BD28">
+        <v>7.06</v>
+      </c>
+      <c r="BE28">
+        <v>2.27</v>
+      </c>
+      <c r="BF28">
+        <v>21.04</v>
+      </c>
+      <c r="BG28">
+        <v>16.57</v>
+      </c>
+      <c r="BH28">
+        <v>44.85</v>
+      </c>
+      <c r="BI28">
+        <v>87.25</v>
+      </c>
+      <c r="BJ28">
+        <v>46.9</v>
+      </c>
+      <c r="BK28">
+        <v>6.3</v>
+      </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:63">
       <c r="A29" s="1">
-        <v>397665</v>
+        <v>31531</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29">
         <v>202107</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>2021</v>
       </c>
-      <c r="E29">
-        <v>11512209</v>
-      </c>
-      <c r="F29">
+      <c r="G29">
         <v>4099606539</v>
       </c>
-      <c r="G29" t="s">
-        <v>71</v>
-      </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I29" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J29">
+        <v>2917051000</v>
+      </c>
+      <c r="K29">
         <v>40.3969696969697</v>
       </c>
-      <c r="K29" t="s">
-        <v>79</v>
-      </c>
-      <c r="L29">
-        <v>2917051000</v>
+      <c r="L29" t="s">
+        <v>108</v>
       </c>
       <c r="M29">
         <v>696122</v>
@@ -3489,96 +6096,186 @@
         <v>5592</v>
       </c>
       <c r="P29">
+        <v>100</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>6.04</v>
+      </c>
+      <c r="T29">
+        <v>6.56</v>
+      </c>
+      <c r="U29">
+        <v>47.91</v>
+      </c>
+      <c r="V29">
+        <v>21.91</v>
+      </c>
+      <c r="W29">
+        <v>17.59</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>14.98</v>
+      </c>
+      <c r="Z29">
+        <v>64.45999999999999</v>
+      </c>
+      <c r="AA29">
+        <v>20.57</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
         <v>42.18</v>
       </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
         <v>7</v>
       </c>
-      <c r="S29">
+      <c r="AI29">
         <v>12.22</v>
       </c>
-      <c r="T29">
+      <c r="AJ29">
         <v>2.16</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
         <v>7.97</v>
       </c>
-      <c r="W29">
+      <c r="AM29">
         <v>3.28</v>
       </c>
-      <c r="X29">
+      <c r="AN29">
         <v>11.18</v>
       </c>
-      <c r="Y29">
+      <c r="AO29">
         <v>14.01</v>
       </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
         <v>17.51</v>
       </c>
-      <c r="AD29">
+      <c r="AT29">
         <v>67.06</v>
       </c>
-      <c r="AE29">
+      <c r="AU29">
         <v>10.66</v>
       </c>
-      <c r="AF29">
+      <c r="AV29">
         <v>1.12</v>
       </c>
-      <c r="AG29">
+      <c r="AW29">
         <v>3.65</v>
       </c>
+      <c r="AX29">
+        <v>51.34</v>
+      </c>
+      <c r="AY29">
+        <v>1.12</v>
+      </c>
+      <c r="AZ29">
+        <v>2.16</v>
+      </c>
+      <c r="BA29">
+        <v>18.26</v>
+      </c>
+      <c r="BB29">
+        <v>15.57</v>
+      </c>
+      <c r="BC29">
+        <v>11.55</v>
+      </c>
+      <c r="BD29">
+        <v>5.81</v>
+      </c>
+      <c r="BE29">
+        <v>3.65</v>
+      </c>
+      <c r="BF29">
+        <v>44.34</v>
+      </c>
+      <c r="BG29">
+        <v>16.24</v>
+      </c>
+      <c r="BH29">
+        <v>29.21</v>
+      </c>
+      <c r="BI29">
+        <v>94.11</v>
+      </c>
+      <c r="BJ29">
+        <v>52.4</v>
+      </c>
+      <c r="BK29">
+        <v>14.3</v>
+      </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:63">
       <c r="A30" s="1">
-        <v>419792</v>
+        <v>33249</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30">
         <v>202108</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>2021</v>
       </c>
-      <c r="E30">
-        <v>11512209</v>
-      </c>
-      <c r="F30">
+      <c r="G30">
         <v>4099606539</v>
       </c>
-      <c r="G30" t="s">
-        <v>71</v>
-      </c>
       <c r="H30" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I30" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J30">
+        <v>2917051000</v>
+      </c>
+      <c r="K30">
         <v>40.3969696969697</v>
       </c>
-      <c r="K30" t="s">
-        <v>79</v>
-      </c>
-      <c r="L30">
-        <v>2917051000</v>
+      <c r="L30" t="s">
+        <v>108</v>
       </c>
       <c r="M30">
         <v>615650</v>
@@ -3590,96 +6287,186 @@
         <v>3588</v>
       </c>
       <c r="P30">
+        <v>100</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>33.85</v>
+      </c>
+      <c r="T30">
+        <v>27.87</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>12.13</v>
+      </c>
+      <c r="W30">
+        <v>26.15</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>42.05</v>
+      </c>
+      <c r="Z30">
+        <v>38.85</v>
+      </c>
+      <c r="AA30">
+        <v>19.1</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
         <v>8.029999999999999</v>
       </c>
-      <c r="Q30">
+      <c r="AG30">
         <v>4.26</v>
       </c>
-      <c r="R30">
+      <c r="AH30">
         <v>9.18</v>
       </c>
-      <c r="S30">
+      <c r="AI30">
         <v>21.8</v>
       </c>
-      <c r="T30">
+      <c r="AJ30">
         <v>3.36</v>
       </c>
-      <c r="U30">
+      <c r="AK30">
         <v>4.02</v>
       </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
         <v>22.21</v>
       </c>
-      <c r="X30">
+      <c r="AN30">
         <v>19.84</v>
       </c>
-      <c r="Y30">
+      <c r="AO30">
         <v>7.3</v>
       </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
         <v>4.02</v>
       </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
         <v>15</v>
       </c>
-      <c r="AD30">
+      <c r="AT30">
         <v>48.69</v>
       </c>
-      <c r="AE30">
+      <c r="AU30">
         <v>17.54</v>
       </c>
-      <c r="AF30">
+      <c r="AV30">
         <v>10.33</v>
       </c>
-      <c r="AG30">
+      <c r="AW30">
         <v>4.43</v>
       </c>
+      <c r="AX30">
+        <v>35.74</v>
+      </c>
+      <c r="AY30">
+        <v>4.02</v>
+      </c>
+      <c r="AZ30">
+        <v>1.23</v>
+      </c>
+      <c r="BA30">
+        <v>39.18</v>
+      </c>
+      <c r="BB30">
+        <v>17.38</v>
+      </c>
+      <c r="BC30">
+        <v>2.46</v>
+      </c>
+      <c r="BD30">
+        <v>5.74</v>
+      </c>
+      <c r="BE30">
+        <v>4.02</v>
+      </c>
+      <c r="BF30">
+        <v>4.02</v>
+      </c>
+      <c r="BG30">
+        <v>25.82</v>
+      </c>
+      <c r="BH30">
+        <v>61.89</v>
+      </c>
+      <c r="BI30">
+        <v>89.34</v>
+      </c>
+      <c r="BJ30">
+        <v>35.5</v>
+      </c>
+      <c r="BK30">
+        <v>9.699999999999999</v>
+      </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:63">
       <c r="A31" s="1">
-        <v>441942</v>
+        <v>34971</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31">
         <v>202109</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>2021</v>
       </c>
-      <c r="E31">
-        <v>11512209</v>
-      </c>
-      <c r="F31">
+      <c r="G31">
         <v>4099606539</v>
       </c>
-      <c r="G31" t="s">
-        <v>71</v>
-      </c>
       <c r="H31" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I31" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J31">
+        <v>2917051000</v>
+      </c>
+      <c r="K31">
         <v>40.3969696969697</v>
       </c>
-      <c r="K31" t="s">
-        <v>79</v>
-      </c>
-      <c r="L31">
-        <v>2917051000</v>
+      <c r="L31" t="s">
+        <v>108</v>
       </c>
       <c r="M31">
         <v>971031</v>
@@ -3691,96 +6478,186 @@
         <v>4690</v>
       </c>
       <c r="P31">
+        <v>100</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>25.48</v>
+      </c>
+      <c r="T31">
+        <v>8.26</v>
+      </c>
+      <c r="U31">
+        <v>18.07</v>
+      </c>
+      <c r="V31">
+        <v>29.9</v>
+      </c>
+      <c r="W31">
+        <v>18.28</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>22.23</v>
+      </c>
+      <c r="Z31">
+        <v>56.88</v>
+      </c>
+      <c r="AA31">
+        <v>20.9</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
         <v>2.93</v>
       </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
         <v>11.67</v>
       </c>
-      <c r="S31">
+      <c r="AI31">
         <v>7.68</v>
       </c>
-      <c r="T31">
+      <c r="AJ31">
         <v>7.89</v>
       </c>
-      <c r="U31">
+      <c r="AK31">
         <v>10.45</v>
       </c>
-      <c r="V31">
+      <c r="AL31">
         <v>9.43</v>
       </c>
-      <c r="W31">
+      <c r="AM31">
         <v>13.06</v>
       </c>
-      <c r="X31">
+      <c r="AN31">
         <v>7.89</v>
       </c>
-      <c r="Y31">
+      <c r="AO31">
         <v>29</v>
       </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
         <v>23.13</v>
       </c>
-      <c r="AD31">
+      <c r="AT31">
         <v>37.31</v>
       </c>
-      <c r="AE31">
+      <c r="AU31">
         <v>22.49</v>
       </c>
-      <c r="AF31">
+      <c r="AV31">
         <v>8.800000000000001</v>
       </c>
-      <c r="AG31">
+      <c r="AW31">
         <v>8.26</v>
       </c>
+      <c r="AX31">
+        <v>24.47</v>
+      </c>
+      <c r="AY31">
+        <v>2.56</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>39.77</v>
+      </c>
+      <c r="BB31">
+        <v>11.83</v>
+      </c>
+      <c r="BC31">
+        <v>21.38</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>2.61</v>
+      </c>
+      <c r="BF31">
+        <v>17.16</v>
+      </c>
+      <c r="BG31">
+        <v>20.36</v>
+      </c>
+      <c r="BH31">
+        <v>49.15</v>
+      </c>
+      <c r="BI31">
+        <v>84.28</v>
+      </c>
+      <c r="BJ31">
+        <v>36.8</v>
+      </c>
+      <c r="BK31">
+        <v>5.3</v>
+      </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:63">
       <c r="A32" s="1">
-        <v>464148</v>
+        <v>36693</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32">
         <v>202110</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>2021</v>
       </c>
-      <c r="E32">
-        <v>11512209</v>
-      </c>
-      <c r="F32">
+      <c r="G32">
         <v>4099606539</v>
       </c>
-      <c r="G32" t="s">
-        <v>71</v>
-      </c>
       <c r="H32" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I32" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J32">
+        <v>2917051000</v>
+      </c>
+      <c r="K32">
         <v>40.3969696969697</v>
       </c>
-      <c r="K32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L32">
-        <v>2917051000</v>
+      <c r="L32" t="s">
+        <v>108</v>
       </c>
       <c r="M32">
         <v>1374992</v>
@@ -3792,96 +6669,186 @@
         <v>6986</v>
       </c>
       <c r="P32">
+        <v>100</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>38.3</v>
+      </c>
+      <c r="T32">
+        <v>26.23</v>
+      </c>
+      <c r="U32">
+        <v>8.51</v>
+      </c>
+      <c r="V32">
+        <v>17.64</v>
+      </c>
+      <c r="W32">
+        <v>9.32</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>33.62</v>
+      </c>
+      <c r="Z32">
+        <v>34.24</v>
+      </c>
+      <c r="AA32">
+        <v>32.15</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
         <v>27.04</v>
       </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
         <v>15.01</v>
       </c>
-      <c r="S32">
+      <c r="AI32">
         <v>7.66</v>
       </c>
-      <c r="T32">
+      <c r="AJ32">
         <v>6.42</v>
       </c>
-      <c r="U32">
+      <c r="AK32">
         <v>9.67</v>
       </c>
-      <c r="V32">
+      <c r="AL32">
         <v>1.9</v>
       </c>
-      <c r="W32">
+      <c r="AM32">
         <v>3.29</v>
       </c>
-      <c r="X32">
+      <c r="AN32">
         <v>11.84</v>
       </c>
-      <c r="Y32">
+      <c r="AO32">
         <v>17.18</v>
       </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
         <v>1.9</v>
       </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
         <v>9.98</v>
       </c>
-      <c r="AD32">
+      <c r="AT32">
         <v>43.87</v>
       </c>
-      <c r="AE32">
+      <c r="AU32">
         <v>22.4</v>
       </c>
-      <c r="AF32">
+      <c r="AV32">
         <v>17.83</v>
       </c>
-      <c r="AG32">
+      <c r="AW32">
         <v>4.02</v>
       </c>
+      <c r="AX32">
+        <v>42.09</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>30.79</v>
+      </c>
+      <c r="BB32">
+        <v>17.21</v>
+      </c>
+      <c r="BC32">
+        <v>9.9</v>
+      </c>
+      <c r="BD32">
+        <v>2.71</v>
+      </c>
+      <c r="BE32">
+        <v>1.9</v>
+      </c>
+      <c r="BF32">
+        <v>36.71</v>
+      </c>
+      <c r="BG32">
+        <v>18.07</v>
+      </c>
+      <c r="BH32">
+        <v>48.97</v>
+      </c>
+      <c r="BI32">
+        <v>76.91</v>
+      </c>
+      <c r="BJ32">
+        <v>41.7</v>
+      </c>
+      <c r="BK32">
+        <v>2.8</v>
+      </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:63">
       <c r="A33" s="1">
-        <v>486427</v>
+        <v>38431</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33">
         <v>202111</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>2021</v>
       </c>
-      <c r="E33">
-        <v>11512209</v>
-      </c>
-      <c r="F33">
+      <c r="G33">
         <v>4099606539</v>
       </c>
-      <c r="G33" t="s">
-        <v>71</v>
-      </c>
       <c r="H33" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I33" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J33">
+        <v>2917051000</v>
+      </c>
+      <c r="K33">
         <v>40.3969696969697</v>
       </c>
-      <c r="K33" t="s">
-        <v>79</v>
-      </c>
-      <c r="L33">
-        <v>2917051000</v>
+      <c r="L33" t="s">
+        <v>108</v>
       </c>
       <c r="M33">
         <v>1613019</v>
@@ -3893,96 +6860,186 @@
         <v>9097</v>
       </c>
       <c r="P33">
+        <v>100</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>72.70999999999999</v>
+      </c>
+      <c r="T33">
+        <v>5.08</v>
+      </c>
+      <c r="U33">
+        <v>9.57</v>
+      </c>
+      <c r="V33">
+        <v>6.34</v>
+      </c>
+      <c r="W33">
+        <v>6.3</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>22.08</v>
+      </c>
+      <c r="Z33">
+        <v>14.39</v>
+      </c>
+      <c r="AA33">
+        <v>63.53</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
         <v>3.52</v>
       </c>
-      <c r="Q33">
+      <c r="AG33">
         <v>3.17</v>
       </c>
-      <c r="R33">
+      <c r="AH33">
         <v>15.26</v>
       </c>
-      <c r="S33">
+      <c r="AI33">
         <v>18.85</v>
       </c>
-      <c r="T33">
+      <c r="AJ33">
         <v>12.45</v>
       </c>
-      <c r="U33">
+      <c r="AK33">
         <v>2.13</v>
       </c>
-      <c r="V33">
+      <c r="AL33">
         <v>0.9399999999999999</v>
       </c>
-      <c r="W33">
+      <c r="AM33">
         <v>5.37</v>
       </c>
-      <c r="X33">
+      <c r="AN33">
         <v>6.82</v>
       </c>
-      <c r="Y33">
+      <c r="AO33">
         <v>31.49</v>
       </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
         <v>1.58</v>
       </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
         <v>9.890000000000001</v>
       </c>
-      <c r="AD33">
+      <c r="AT33">
         <v>31.75</v>
       </c>
-      <c r="AE33">
+      <c r="AU33">
         <v>50.73</v>
       </c>
-      <c r="AF33">
+      <c r="AV33">
         <v>3.78</v>
       </c>
-      <c r="AG33">
+      <c r="AW33">
         <v>2.26</v>
       </c>
+      <c r="AX33">
+        <v>24.38</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>1.58</v>
+      </c>
+      <c r="BA33">
+        <v>27.64</v>
+      </c>
+      <c r="BB33">
+        <v>45.46</v>
+      </c>
+      <c r="BC33">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="BD33">
+        <v>2.52</v>
+      </c>
+      <c r="BE33">
+        <v>1.58</v>
+      </c>
+      <c r="BF33">
+        <v>6.6</v>
+      </c>
+      <c r="BG33">
+        <v>29.03</v>
+      </c>
+      <c r="BH33">
+        <v>70.70999999999999</v>
+      </c>
+      <c r="BI33">
+        <v>90.2</v>
+      </c>
+      <c r="BJ33">
+        <v>42.4</v>
+      </c>
+      <c r="BK33">
+        <v>3</v>
+      </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:63">
       <c r="A34" s="1">
-        <v>508725</v>
+        <v>40170</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34">
         <v>202112</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>2021</v>
       </c>
-      <c r="E34">
-        <v>11512209</v>
-      </c>
-      <c r="F34">
+      <c r="G34">
         <v>4099606539</v>
       </c>
-      <c r="G34" t="s">
-        <v>71</v>
-      </c>
       <c r="H34" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I34" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J34">
+        <v>2917051000</v>
+      </c>
+      <c r="K34">
         <v>40.3969696969697</v>
       </c>
-      <c r="K34" t="s">
-        <v>79</v>
-      </c>
-      <c r="L34">
-        <v>2917051000</v>
+      <c r="L34" t="s">
+        <v>108</v>
       </c>
       <c r="M34">
         <v>1202654</v>
@@ -3994,96 +7051,186 @@
         <v>6249</v>
       </c>
       <c r="P34">
+        <v>100</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>25.22</v>
+      </c>
+      <c r="T34">
+        <v>19.77</v>
+      </c>
+      <c r="U34">
+        <v>4.2</v>
+      </c>
+      <c r="V34">
+        <v>35.81</v>
+      </c>
+      <c r="W34">
+        <v>15.01</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>69.98</v>
+      </c>
+      <c r="Z34">
+        <v>22.23</v>
+      </c>
+      <c r="AA34">
+        <v>7.79</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
         <v>8.609999999999999</v>
       </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
         <v>5.36</v>
       </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
         <v>6.14</v>
       </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
         <v>14.84</v>
       </c>
-      <c r="W34">
+      <c r="AM34">
         <v>9.69</v>
       </c>
-      <c r="X34">
+      <c r="AN34">
         <v>32.44</v>
       </c>
-      <c r="Y34">
+      <c r="AO34">
         <v>22.92</v>
       </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
         <v>5.28</v>
       </c>
-      <c r="AD34">
+      <c r="AT34">
         <v>50.74</v>
       </c>
-      <c r="AE34">
+      <c r="AU34">
         <v>38.54</v>
       </c>
-      <c r="AF34">
+      <c r="AV34">
         <v>3.33</v>
       </c>
-      <c r="AG34">
+      <c r="AW34">
         <v>2.12</v>
       </c>
+      <c r="AX34">
+        <v>33.39</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0.65</v>
+      </c>
+      <c r="BA34">
+        <v>28.81</v>
+      </c>
+      <c r="BB34">
+        <v>35.86</v>
+      </c>
+      <c r="BC34">
+        <v>1.3</v>
+      </c>
+      <c r="BD34">
+        <v>3.03</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>21.32</v>
+      </c>
+      <c r="BG34">
+        <v>27.34</v>
+      </c>
+      <c r="BH34">
+        <v>32.18</v>
+      </c>
+      <c r="BI34">
+        <v>69.94</v>
+      </c>
+      <c r="BJ34">
+        <v>50</v>
+      </c>
+      <c r="BK34">
+        <v>5.9</v>
+      </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:63">
       <c r="A35" s="1">
-        <v>531041</v>
+        <v>41901</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35">
         <v>202201</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>2022</v>
       </c>
-      <c r="E35">
-        <v>11512209</v>
-      </c>
-      <c r="F35">
+      <c r="G35">
         <v>4099606539</v>
       </c>
-      <c r="G35" t="s">
-        <v>71</v>
-      </c>
       <c r="H35" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I35" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J35">
+        <v>2917051000</v>
+      </c>
+      <c r="K35">
         <v>40.3969696969697</v>
       </c>
-      <c r="K35" t="s">
-        <v>79</v>
-      </c>
-      <c r="L35">
-        <v>2917051000</v>
+      <c r="L35" t="s">
+        <v>108</v>
       </c>
       <c r="M35">
         <v>1097033</v>
@@ -4095,96 +7242,186 @@
         <v>6410</v>
       </c>
       <c r="P35">
+        <v>100</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>35.38</v>
+      </c>
+      <c r="T35">
+        <v>11.78</v>
+      </c>
+      <c r="U35">
+        <v>14.59</v>
+      </c>
+      <c r="V35">
+        <v>13.64</v>
+      </c>
+      <c r="W35">
+        <v>24.61</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>15</v>
+      </c>
+      <c r="Z35">
+        <v>69.8</v>
+      </c>
+      <c r="AA35">
+        <v>15.2</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
         <v>2.65</v>
       </c>
-      <c r="Q35">
+      <c r="AG35">
         <v>4.88</v>
       </c>
-      <c r="R35">
+      <c r="AH35">
         <v>6.2</v>
       </c>
-      <c r="S35">
+      <c r="AI35">
         <v>5.83</v>
       </c>
-      <c r="T35">
+      <c r="AJ35">
         <v>16.27</v>
       </c>
-      <c r="U35">
+      <c r="AK35">
         <v>30.9</v>
       </c>
-      <c r="V35">
+      <c r="AL35">
         <v>7.21</v>
       </c>
-      <c r="W35">
+      <c r="AM35">
         <v>6.25</v>
       </c>
-      <c r="X35">
+      <c r="AN35">
         <v>3.5</v>
       </c>
-      <c r="Y35">
+      <c r="AO35">
         <v>16.32</v>
       </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
         <v>27.61</v>
       </c>
-      <c r="AD35">
+      <c r="AT35">
         <v>60.31</v>
       </c>
-      <c r="AE35">
+      <c r="AU35">
         <v>10.28</v>
       </c>
-      <c r="AF35">
+      <c r="AV35">
         <v>1.8</v>
       </c>
-      <c r="AG35">
-        <v>0</v>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>53.15</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>2.65</v>
+      </c>
+      <c r="BA35">
+        <v>14.47</v>
+      </c>
+      <c r="BB35">
+        <v>13.3</v>
+      </c>
+      <c r="BC35">
+        <v>16.43</v>
+      </c>
+      <c r="BD35">
+        <v>4.88</v>
+      </c>
+      <c r="BE35">
+        <v>5.3</v>
+      </c>
+      <c r="BF35">
+        <v>37.68</v>
+      </c>
+      <c r="BG35">
+        <v>10.92</v>
+      </c>
+      <c r="BH35">
+        <v>65.92</v>
+      </c>
+      <c r="BI35">
+        <v>83.31</v>
+      </c>
+      <c r="BJ35">
+        <v>48.3</v>
+      </c>
+      <c r="BK35">
+        <v>6.9</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:63">
       <c r="A36" s="1">
-        <v>553313</v>
+        <v>43624</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36">
         <v>202202</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>2022</v>
       </c>
-      <c r="E36">
-        <v>11512209</v>
-      </c>
-      <c r="F36">
+      <c r="G36">
         <v>4099606539</v>
       </c>
-      <c r="G36" t="s">
-        <v>71</v>
-      </c>
       <c r="H36" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I36" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J36">
+        <v>2917051000</v>
+      </c>
+      <c r="K36">
         <v>40.3969696969697</v>
       </c>
-      <c r="K36" t="s">
-        <v>79</v>
-      </c>
-      <c r="L36">
-        <v>2917051000</v>
+      <c r="L36" t="s">
+        <v>108</v>
       </c>
       <c r="M36">
         <v>510912</v>
@@ -4196,96 +7433,186 @@
         <v>3213</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>32.68</v>
+      </c>
+      <c r="T36">
+        <v>6.22</v>
+      </c>
+      <c r="U36">
+        <v>26.14</v>
+      </c>
+      <c r="V36">
+        <v>17.12</v>
+      </c>
+      <c r="W36">
+        <v>17.84</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>36.2</v>
+      </c>
+      <c r="Z36">
+        <v>28.32</v>
+      </c>
+      <c r="AA36">
+        <v>35.48</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
         <v>8.92</v>
       </c>
-      <c r="R36">
+      <c r="AH36">
         <v>10.58</v>
       </c>
-      <c r="S36">
+      <c r="AI36">
         <v>13.07</v>
       </c>
-      <c r="T36">
+      <c r="AJ36">
         <v>1.56</v>
       </c>
-      <c r="U36">
+      <c r="AK36">
         <v>3.73</v>
       </c>
-      <c r="V36">
+      <c r="AL36">
         <v>9.23</v>
       </c>
-      <c r="W36">
+      <c r="AM36">
         <v>9.75</v>
       </c>
-      <c r="X36">
+      <c r="AN36">
         <v>12.86</v>
       </c>
-      <c r="Y36">
+      <c r="AO36">
         <v>30.29</v>
       </c>
-      <c r="Z36">
+      <c r="AP36">
         <v>1.66</v>
       </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
         <v>9.85</v>
       </c>
-      <c r="AD36">
+      <c r="AT36">
         <v>56.64</v>
       </c>
-      <c r="AE36">
+      <c r="AU36">
         <v>17.53</v>
       </c>
-      <c r="AF36">
+      <c r="AV36">
         <v>12.76</v>
       </c>
-      <c r="AG36">
+      <c r="AW36">
         <v>1.56</v>
       </c>
+      <c r="AX36">
+        <v>35.89</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>30.5</v>
+      </c>
+      <c r="BB36">
+        <v>22.61</v>
+      </c>
+      <c r="BC36">
+        <v>11</v>
+      </c>
+      <c r="BD36">
+        <v>3.11</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>21.89</v>
+      </c>
+      <c r="BG36">
+        <v>32.57</v>
+      </c>
+      <c r="BH36">
+        <v>49.17</v>
+      </c>
+      <c r="BI36">
+        <v>88.28</v>
+      </c>
+      <c r="BJ36">
+        <v>48.1</v>
+      </c>
+      <c r="BK36">
+        <v>11.1</v>
+      </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:63">
       <c r="A37" s="1">
-        <v>575630</v>
+        <v>45358</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37">
         <v>202203</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>2022</v>
       </c>
-      <c r="E37">
-        <v>11512209</v>
-      </c>
-      <c r="F37">
+      <c r="G37">
         <v>4099606539</v>
       </c>
-      <c r="G37" t="s">
-        <v>71</v>
-      </c>
       <c r="H37" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J37">
+        <v>2917051000</v>
+      </c>
+      <c r="K37">
         <v>40.3969696969697</v>
       </c>
-      <c r="K37" t="s">
-        <v>79</v>
-      </c>
-      <c r="L37">
-        <v>2917051000</v>
+      <c r="L37" t="s">
+        <v>108</v>
       </c>
       <c r="M37">
         <v>774287</v>
@@ -4297,96 +7624,186 @@
         <v>5361</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>13.79</v>
+      </c>
+      <c r="T37">
+        <v>5.73</v>
+      </c>
+      <c r="U37">
+        <v>17.32</v>
+      </c>
+      <c r="V37">
+        <v>46.3</v>
+      </c>
+      <c r="W37">
+        <v>16.86</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>45.77</v>
+      </c>
+      <c r="Z37">
+        <v>37.51</v>
+      </c>
+      <c r="AA37">
+        <v>16.72</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
         <v>12.06</v>
       </c>
-      <c r="R37">
+      <c r="AH37">
         <v>3.33</v>
       </c>
-      <c r="S37">
+      <c r="AI37">
         <v>5.6</v>
       </c>
-      <c r="T37">
+      <c r="AJ37">
         <v>2.8</v>
       </c>
-      <c r="U37">
+      <c r="AK37">
         <v>13.52</v>
       </c>
-      <c r="V37">
+      <c r="AL37">
         <v>3.33</v>
       </c>
-      <c r="W37">
+      <c r="AM37">
         <v>2.4</v>
       </c>
-      <c r="X37">
+      <c r="AN37">
         <v>7.33</v>
       </c>
-      <c r="Y37">
+      <c r="AO37">
         <v>49.63</v>
       </c>
-      <c r="Z37">
+      <c r="AP37">
         <v>1</v>
       </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
         <v>22.72</v>
       </c>
-      <c r="AD37">
+      <c r="AT37">
         <v>62.89</v>
       </c>
-      <c r="AE37">
+      <c r="AU37">
         <v>10.99</v>
       </c>
-      <c r="AF37">
+      <c r="AV37">
         <v>2.4</v>
       </c>
-      <c r="AG37">
-        <v>0</v>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>33.31</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>12.92</v>
+      </c>
+      <c r="BB37">
+        <v>45.44</v>
+      </c>
+      <c r="BC37">
+        <v>8.33</v>
+      </c>
+      <c r="BD37">
+        <v>6.13</v>
+      </c>
+      <c r="BE37">
+        <v>7.79</v>
+      </c>
+      <c r="BF37">
+        <v>13.86</v>
+      </c>
+      <c r="BG37">
+        <v>13.72</v>
+      </c>
+      <c r="BH37">
+        <v>24.72</v>
+      </c>
+      <c r="BI37">
+        <v>55.76</v>
+      </c>
+      <c r="BJ37">
+        <v>44</v>
+      </c>
+      <c r="BK37">
+        <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:63">
       <c r="A38" s="1">
-        <v>598014</v>
+        <v>47100</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38">
         <v>202204</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>2022</v>
       </c>
-      <c r="E38">
-        <v>11512209</v>
-      </c>
-      <c r="F38">
+      <c r="G38">
         <v>4099606539</v>
       </c>
-      <c r="G38" t="s">
-        <v>71</v>
-      </c>
       <c r="H38" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I38" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J38">
+        <v>2917051000</v>
+      </c>
+      <c r="K38">
         <v>40.3969696969697</v>
       </c>
-      <c r="K38" t="s">
-        <v>79</v>
-      </c>
-      <c r="L38">
-        <v>2917051000</v>
+      <c r="L38" t="s">
+        <v>108</v>
       </c>
       <c r="M38">
         <v>699544</v>
@@ -4398,96 +7815,186 @@
         <v>3950</v>
       </c>
       <c r="P38">
+        <v>100</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>27.33</v>
+      </c>
+      <c r="T38">
+        <v>23.16</v>
+      </c>
+      <c r="U38">
+        <v>9.01</v>
+      </c>
+      <c r="V38">
+        <v>21.97</v>
+      </c>
+      <c r="W38">
+        <v>18.54</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>39.17</v>
+      </c>
+      <c r="Z38">
+        <v>37.45</v>
+      </c>
+      <c r="AA38">
+        <v>23.38</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
         <v>3.72</v>
       </c>
-      <c r="Q38">
+      <c r="AG38">
         <v>8.789999999999999</v>
       </c>
-      <c r="R38">
+      <c r="AH38">
         <v>4.24</v>
       </c>
-      <c r="S38">
+      <c r="AI38">
         <v>7</v>
       </c>
-      <c r="T38">
+      <c r="AJ38">
         <v>6.03</v>
       </c>
-      <c r="U38">
+      <c r="AK38">
         <v>10.95</v>
       </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
         <v>11.91</v>
       </c>
-      <c r="X38">
+      <c r="AN38">
         <v>13.03</v>
       </c>
-      <c r="Y38">
+      <c r="AO38">
         <v>34.33</v>
       </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
         <v>23.23</v>
       </c>
-      <c r="AD38">
+      <c r="AT38">
         <v>36.41</v>
       </c>
-      <c r="AE38">
+      <c r="AU38">
         <v>23.6</v>
       </c>
-      <c r="AF38">
+      <c r="AV38">
         <v>11.91</v>
       </c>
-      <c r="AG38">
+      <c r="AW38">
         <v>4.84</v>
       </c>
+      <c r="AX38">
+        <v>22.93</v>
+      </c>
+      <c r="AY38">
+        <v>7.15</v>
+      </c>
+      <c r="AZ38">
+        <v>11.91</v>
+      </c>
+      <c r="BA38">
+        <v>20.33</v>
+      </c>
+      <c r="BB38">
+        <v>22.64</v>
+      </c>
+      <c r="BC38">
+        <v>15.04</v>
+      </c>
+      <c r="BD38">
+        <v>1.12</v>
+      </c>
+      <c r="BE38">
+        <v>5.58</v>
+      </c>
+      <c r="BF38">
+        <v>9.08</v>
+      </c>
+      <c r="BG38">
+        <v>15.86</v>
+      </c>
+      <c r="BH38">
+        <v>67.61</v>
+      </c>
+      <c r="BI38">
+        <v>88.76000000000001</v>
+      </c>
+      <c r="BJ38">
+        <v>42.9</v>
+      </c>
+      <c r="BK38">
+        <v>14.3</v>
+      </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:63">
       <c r="A39" s="1">
-        <v>620410</v>
+        <v>48858</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39">
         <v>202205</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>2022</v>
       </c>
-      <c r="E39">
-        <v>11512209</v>
-      </c>
-      <c r="F39">
+      <c r="G39">
         <v>4099606539</v>
       </c>
-      <c r="G39" t="s">
-        <v>71</v>
-      </c>
       <c r="H39" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I39" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J39">
+        <v>2917051000</v>
+      </c>
+      <c r="K39">
         <v>40.3969696969697</v>
       </c>
-      <c r="K39" t="s">
-        <v>79</v>
-      </c>
-      <c r="L39">
-        <v>2917051000</v>
+      <c r="L39" t="s">
+        <v>108</v>
       </c>
       <c r="M39">
         <v>1040143</v>
@@ -4499,58 +8006,148 @@
         <v>5364</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>19.11</v>
+      </c>
+      <c r="T39">
+        <v>21.03</v>
+      </c>
+      <c r="U39">
+        <v>31.49</v>
+      </c>
+      <c r="V39">
+        <v>3.94</v>
+      </c>
+      <c r="W39">
+        <v>24.44</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>26.67</v>
+      </c>
+      <c r="Z39">
+        <v>17.5</v>
+      </c>
+      <c r="AA39">
+        <v>55.83</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
         <v>2.64</v>
       </c>
-      <c r="R39">
+      <c r="AH39">
         <v>2.32</v>
       </c>
-      <c r="S39">
+      <c r="AI39">
         <v>12.14</v>
       </c>
-      <c r="T39">
+      <c r="AJ39">
         <v>23.75</v>
       </c>
-      <c r="U39">
+      <c r="AK39">
         <v>5.86</v>
       </c>
-      <c r="V39">
+      <c r="AL39">
         <v>4.22</v>
       </c>
-      <c r="W39">
+      <c r="AM39">
         <v>9.970000000000001</v>
       </c>
-      <c r="X39">
+      <c r="AN39">
         <v>9.02</v>
       </c>
-      <c r="Y39">
+      <c r="AO39">
         <v>30.08</v>
       </c>
-      <c r="Z39">
+      <c r="AP39">
         <v>1.58</v>
       </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
         <v>28.02</v>
       </c>
-      <c r="AD39">
+      <c r="AT39">
         <v>37.94</v>
       </c>
-      <c r="AE39">
+      <c r="AU39">
         <v>18.05</v>
       </c>
-      <c r="AF39">
+      <c r="AV39">
         <v>7.81</v>
       </c>
-      <c r="AG39">
+      <c r="AW39">
         <v>6.6</v>
+      </c>
+      <c r="AX39">
+        <v>15.73</v>
+      </c>
+      <c r="AY39">
+        <v>5.01</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>20.37</v>
+      </c>
+      <c r="BB39">
+        <v>29.13</v>
+      </c>
+      <c r="BC39">
+        <v>29.76</v>
+      </c>
+      <c r="BD39">
+        <v>2.37</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <v>10.08</v>
+      </c>
+      <c r="BG39">
+        <v>33.14</v>
+      </c>
+      <c r="BH39">
+        <v>55.3</v>
+      </c>
+      <c r="BI39">
+        <v>82.73999999999999</v>
+      </c>
+      <c r="BJ39">
+        <v>48.5</v>
+      </c>
+      <c r="BK39">
+        <v>9.1</v>
       </c>
     </row>
   </sheetData>

--- a/시장분석용_정보/시장분석용_2917051000.xlsx
+++ b/시장분석용_정보/시장분석용_2917051000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="40">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -539,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV39"/>
+  <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,64 +591,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>760</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -708,10 +612,10 @@
         <v>6229027417</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>2917051000</v>
@@ -720,7 +624,7 @@
         <v>601.6636363636364</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L2">
         <v>95456767</v>
@@ -732,117 +636,69 @@
         <v>919567</v>
       </c>
       <c r="O2">
-        <v>94.63</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5.37</v>
+        <v>5.87</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="R2">
-        <v>17.28</v>
+        <v>27.06</v>
       </c>
       <c r="S2">
-        <v>31.89</v>
+        <v>20.67</v>
       </c>
       <c r="T2">
-        <v>21.05</v>
+        <v>13.38</v>
       </c>
       <c r="U2">
-        <v>20.13</v>
+        <v>0.11</v>
       </c>
       <c r="V2">
-        <v>4.29</v>
+        <v>4.58</v>
       </c>
       <c r="W2">
-        <v>5.37</v>
+        <v>11.36</v>
       </c>
       <c r="X2">
-        <v>34.16</v>
+        <v>12.62</v>
       </c>
       <c r="Y2">
-        <v>47.58</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>18.26</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>23.88</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="AF2">
-        <v>5.87</v>
-      </c>
-      <c r="AG2">
-        <v>4.34</v>
-      </c>
-      <c r="AH2">
-        <v>27.06</v>
-      </c>
-      <c r="AI2">
-        <v>20.67</v>
-      </c>
-      <c r="AJ2">
-        <v>13.38</v>
-      </c>
-      <c r="AK2">
-        <v>0.11</v>
-      </c>
-      <c r="AL2">
-        <v>4.58</v>
-      </c>
-      <c r="AM2">
-        <v>11.36</v>
-      </c>
-      <c r="AN2">
-        <v>12.62</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>64.01000000000001</v>
-      </c>
-      <c r="AS2">
-        <v>23.88</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>4.55</v>
-      </c>
-      <c r="AV2">
         <v>7.56</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>847</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>202001</v>
@@ -854,10 +710,10 @@
         <v>4099606539</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I3">
         <v>2917051000</v>
@@ -866,7 +722,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L3">
         <v>2003861</v>
@@ -878,117 +734,69 @@
         <v>7083</v>
       </c>
       <c r="O3">
-        <v>93.59</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>6.41</v>
+        <v>2.67</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>13.46</v>
       </c>
       <c r="R3">
-        <v>8.369999999999999</v>
+        <v>9.15</v>
       </c>
       <c r="S3">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>11.22</v>
+        <v>2.14</v>
       </c>
       <c r="U3">
-        <v>7.92</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="V3">
-        <v>52.29</v>
+        <v>18.27</v>
       </c>
       <c r="W3">
-        <v>6.41</v>
+        <v>2.51</v>
       </c>
       <c r="X3">
-        <v>52.55</v>
+        <v>39.03</v>
       </c>
       <c r="Y3">
-        <v>34.41</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>13.05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>12.78</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>40.71</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>6.33</v>
       </c>
       <c r="AE3">
-        <v>3.4</v>
+        <v>3.27</v>
       </c>
       <c r="AF3">
-        <v>2.67</v>
-      </c>
-      <c r="AG3">
-        <v>13.46</v>
-      </c>
-      <c r="AH3">
-        <v>9.15</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>2.14</v>
-      </c>
-      <c r="AK3">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="AL3">
-        <v>18.27</v>
-      </c>
-      <c r="AM3">
-        <v>2.51</v>
-      </c>
-      <c r="AN3">
-        <v>39.03</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>12.78</v>
-      </c>
-      <c r="AS3">
-        <v>40.71</v>
-      </c>
-      <c r="AT3">
-        <v>6.33</v>
-      </c>
-      <c r="AU3">
-        <v>3.27</v>
-      </c>
-      <c r="AV3">
         <v>36.92</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>2453</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>202002</v>
@@ -1000,10 +808,10 @@
         <v>6229027417</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>2917051000</v>
@@ -1012,7 +820,7 @@
         <v>601.6636363636364</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L4">
         <v>29544873</v>
@@ -1024,117 +832,69 @@
         <v>575313</v>
       </c>
       <c r="O4">
-        <v>71.39</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>28.61</v>
+        <v>0.16</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="R4">
-        <v>17.38</v>
+        <v>0</v>
       </c>
       <c r="S4">
+        <v>54.54</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.7</v>
+      </c>
+      <c r="V4">
         <v>15.1</v>
       </c>
-      <c r="T4">
-        <v>21.44</v>
-      </c>
-      <c r="U4">
-        <v>0.35</v>
-      </c>
-      <c r="V4">
-        <v>17.12</v>
-      </c>
       <c r="W4">
-        <v>28.61</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>48.01</v>
+        <v>14.91</v>
       </c>
       <c r="Y4">
-        <v>45.11</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>6.88</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>38.08</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>46.82</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="AF4">
-        <v>0.16</v>
-      </c>
-      <c r="AG4">
-        <v>14.6</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>54.54</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0.7</v>
-      </c>
-      <c r="AL4">
-        <v>15.1</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>14.91</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>38.08</v>
-      </c>
-      <c r="AS4">
-        <v>46.82</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>15.1</v>
-      </c>
-      <c r="AV4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>2539</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>202002</v>
@@ -1146,10 +906,10 @@
         <v>4099606539</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <v>2917051000</v>
@@ -1158,7 +918,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L5">
         <v>953428</v>
@@ -1170,117 +930,69 @@
         <v>4981</v>
       </c>
       <c r="O5">
-        <v>90.18000000000001</v>
+        <v>10.17</v>
       </c>
       <c r="P5">
-        <v>9.82</v>
+        <v>3.43</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>6.62</v>
       </c>
       <c r="R5">
-        <v>10.65</v>
+        <v>7.2</v>
       </c>
       <c r="S5">
-        <v>32.35</v>
+        <v>3.83</v>
       </c>
       <c r="T5">
-        <v>27.27</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>9.98</v>
+        <v>13.76</v>
       </c>
       <c r="V5">
-        <v>9.93</v>
+        <v>10.97</v>
       </c>
       <c r="W5">
-        <v>9.82</v>
+        <v>11.82</v>
       </c>
       <c r="X5">
-        <v>20.64</v>
+        <v>32.21</v>
       </c>
       <c r="Y5">
-        <v>57.67</v>
+        <v>7.42</v>
       </c>
       <c r="Z5">
-        <v>21.7</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>13.08</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>68.53</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>6.23</v>
       </c>
       <c r="AE5">
-        <v>10.17</v>
+        <v>0.86</v>
       </c>
       <c r="AF5">
-        <v>3.43</v>
-      </c>
-      <c r="AG5">
-        <v>6.62</v>
-      </c>
-      <c r="AH5">
-        <v>7.2</v>
-      </c>
-      <c r="AI5">
-        <v>3.83</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>13.76</v>
-      </c>
-      <c r="AL5">
-        <v>10.97</v>
-      </c>
-      <c r="AM5">
-        <v>11.82</v>
-      </c>
-      <c r="AN5">
-        <v>32.21</v>
-      </c>
-      <c r="AO5">
-        <v>7.42</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>13.08</v>
-      </c>
-      <c r="AS5">
-        <v>68.53</v>
-      </c>
-      <c r="AT5">
-        <v>6.23</v>
-      </c>
-      <c r="AU5">
-        <v>0.86</v>
-      </c>
-      <c r="AV5">
         <v>3.88</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>4146</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>202003</v>
@@ -1292,10 +1004,10 @@
         <v>6229027417</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I6">
         <v>2917051000</v>
@@ -1304,7 +1016,7 @@
         <v>601.6636363636364</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L6">
         <v>91687954</v>
@@ -1316,49 +1028,49 @@
         <v>1076758</v>
       </c>
       <c r="O6">
-        <v>90.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>20.08</v>
       </c>
       <c r="R6">
-        <v>12.46</v>
+        <v>30.15</v>
       </c>
       <c r="S6">
-        <v>19.06</v>
+        <v>13.24</v>
       </c>
       <c r="T6">
-        <v>38.75</v>
+        <v>11.73</v>
       </c>
       <c r="U6">
-        <v>20.22</v>
+        <v>8.81</v>
       </c>
       <c r="V6">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>49.37</v>
+        <v>15.99</v>
       </c>
       <c r="Y6">
-        <v>38.48</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>12.15</v>
+        <v>20.14</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>29.13</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>50.73</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1369,64 +1081,16 @@
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6">
-        <v>20.08</v>
-      </c>
-      <c r="AH6">
-        <v>30.15</v>
-      </c>
-      <c r="AI6">
-        <v>13.24</v>
-      </c>
-      <c r="AJ6">
-        <v>11.73</v>
-      </c>
-      <c r="AK6">
-        <v>8.81</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>15.99</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>20.14</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>29.13</v>
-      </c>
-      <c r="AS6">
-        <v>50.73</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>4233</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>202003</v>
@@ -1438,10 +1102,10 @@
         <v>4099606539</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I7">
         <v>2917051000</v>
@@ -1450,7 +1114,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L7">
         <v>1521456</v>
@@ -1462,117 +1126,69 @@
         <v>9509</v>
       </c>
       <c r="O7">
-        <v>98.69</v>
+        <v>0.95</v>
       </c>
       <c r="P7">
+        <v>3.15</v>
+      </c>
+      <c r="Q7">
         <v>1.31</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
       <c r="R7">
-        <v>19.36</v>
+        <v>13.84</v>
       </c>
       <c r="S7">
-        <v>11.53</v>
+        <v>0.49</v>
       </c>
       <c r="T7">
-        <v>4.04</v>
+        <v>8.77</v>
       </c>
       <c r="U7">
-        <v>60.11</v>
+        <v>1.05</v>
       </c>
       <c r="V7">
-        <v>3.65</v>
+        <v>8.35</v>
       </c>
       <c r="W7">
-        <v>1.31</v>
+        <v>53.37</v>
       </c>
       <c r="X7">
-        <v>75.25</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="Y7">
-        <v>19.36</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>5.39</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>16.17</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>29.21</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>49.29</v>
       </c>
       <c r="AE7">
-        <v>0.95</v>
+        <v>5.32</v>
       </c>
       <c r="AF7">
-        <v>3.15</v>
-      </c>
-      <c r="AG7">
-        <v>1.31</v>
-      </c>
-      <c r="AH7">
-        <v>13.84</v>
-      </c>
-      <c r="AI7">
-        <v>0.49</v>
-      </c>
-      <c r="AJ7">
-        <v>8.77</v>
-      </c>
-      <c r="AK7">
-        <v>1.05</v>
-      </c>
-      <c r="AL7">
-        <v>8.35</v>
-      </c>
-      <c r="AM7">
-        <v>53.37</v>
-      </c>
-      <c r="AN7">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>16.17</v>
-      </c>
-      <c r="AS7">
-        <v>29.21</v>
-      </c>
-      <c r="AT7">
-        <v>49.29</v>
-      </c>
-      <c r="AU7">
-        <v>5.32</v>
-      </c>
-      <c r="AV7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>5836</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>202004</v>
@@ -1584,10 +1200,10 @@
         <v>6229027417</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I8">
         <v>2917051000</v>
@@ -1596,7 +1212,7 @@
         <v>601.6636363636364</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L8">
         <v>21314127</v>
@@ -1608,22 +1224,22 @@
         <v>853250</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="R8">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>85.58</v>
+        <v>90.62</v>
       </c>
       <c r="T8">
-        <v>14.06</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1638,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>99.64</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.36</v>
+        <v>4.69</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>47.32</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>47.99</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1661,64 +1277,16 @@
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>90.62</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>4.69</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>47.32</v>
-      </c>
-      <c r="AS8">
-        <v>47.99</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>5921</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>202004</v>
@@ -1730,10 +1298,10 @@
         <v>4099606539</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <v>2917051000</v>
@@ -1742,7 +1310,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L9">
         <v>570532</v>
@@ -1754,117 +1322,69 @@
         <v>4667</v>
       </c>
       <c r="O9">
-        <v>84.64</v>
+        <v>8.57</v>
       </c>
       <c r="P9">
-        <v>15.36</v>
+        <v>12.77</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="R9">
-        <v>6.79</v>
+        <v>16.52</v>
       </c>
       <c r="S9">
-        <v>30.18</v>
+        <v>20.45</v>
       </c>
       <c r="T9">
-        <v>13.75</v>
+        <v>7.5</v>
       </c>
       <c r="U9">
-        <v>12.5</v>
+        <v>11.43</v>
       </c>
       <c r="V9">
-        <v>21.43</v>
+        <v>2.59</v>
       </c>
       <c r="W9">
-        <v>15.36</v>
+        <v>2.59</v>
       </c>
       <c r="X9">
-        <v>28.66</v>
+        <v>16.25</v>
       </c>
       <c r="Y9">
-        <v>27.05</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>44.29</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>48.84</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>22.86</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>16.79</v>
       </c>
       <c r="AE9">
-        <v>8.57</v>
+        <v>11.52</v>
       </c>
       <c r="AF9">
-        <v>12.77</v>
-      </c>
-      <c r="AG9">
-        <v>1.34</v>
-      </c>
-      <c r="AH9">
-        <v>16.52</v>
-      </c>
-      <c r="AI9">
-        <v>20.45</v>
-      </c>
-      <c r="AJ9">
-        <v>7.5</v>
-      </c>
-      <c r="AK9">
-        <v>11.43</v>
-      </c>
-      <c r="AL9">
-        <v>2.59</v>
-      </c>
-      <c r="AM9">
-        <v>2.59</v>
-      </c>
-      <c r="AN9">
-        <v>16.25</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>48.84</v>
-      </c>
-      <c r="AS9">
-        <v>22.86</v>
-      </c>
-      <c r="AT9">
-        <v>16.79</v>
-      </c>
-      <c r="AU9">
-        <v>11.52</v>
-      </c>
-      <c r="AV9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>7532</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>202005</v>
@@ -1876,10 +1396,10 @@
         <v>6229027417</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I10">
         <v>2917051000</v>
@@ -1888,7 +1408,7 @@
         <v>601.6636363636364</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L10">
         <v>35658275</v>
@@ -1900,117 +1420,69 @@
         <v>635667</v>
       </c>
       <c r="O10">
-        <v>99.86</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.14</v>
+        <v>2.88</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>18.97</v>
       </c>
       <c r="R10">
-        <v>29.57</v>
+        <v>42.79</v>
       </c>
       <c r="S10">
-        <v>6.68</v>
+        <v>22.27</v>
       </c>
       <c r="T10">
-        <v>22.82</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>40.78</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="X10">
-        <v>41.5</v>
+        <v>12.81</v>
       </c>
       <c r="Y10">
-        <v>49.54</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>8.970000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>97.27</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="AF10">
-        <v>2.88</v>
-      </c>
-      <c r="AG10">
-        <v>18.97</v>
-      </c>
-      <c r="AH10">
-        <v>42.79</v>
-      </c>
-      <c r="AI10">
-        <v>22.27</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0.28</v>
-      </c>
-      <c r="AN10">
-        <v>12.81</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>97.27</v>
-      </c>
-      <c r="AS10">
-        <v>2.45</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0.28</v>
-      </c>
-      <c r="AV10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>7618</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>202005</v>
@@ -2022,10 +1494,10 @@
         <v>4099606539</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I11">
         <v>2917051000</v>
@@ -2034,7 +1506,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L11">
         <v>807605</v>
@@ -2046,117 +1518,69 @@
         <v>4894</v>
       </c>
       <c r="O11">
-        <v>89.14</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>10.86</v>
+        <v>8.81</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>22.61</v>
+        <v>10.22</v>
       </c>
       <c r="S11">
-        <v>4.34</v>
+        <v>7.15</v>
       </c>
       <c r="T11">
-        <v>11.11</v>
+        <v>12.07</v>
       </c>
       <c r="U11">
-        <v>21.52</v>
+        <v>7.02</v>
       </c>
       <c r="V11">
-        <v>29.57</v>
+        <v>9.51</v>
       </c>
       <c r="W11">
-        <v>10.86</v>
+        <v>25.54</v>
       </c>
       <c r="X11">
-        <v>27.65</v>
+        <v>19.67</v>
       </c>
       <c r="Y11">
-        <v>50.89</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>21.46</v>
+        <v>9</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>31.42</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>43.36</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>8.81</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>10.22</v>
-      </c>
-      <c r="AI11">
-        <v>7.15</v>
-      </c>
-      <c r="AJ11">
-        <v>12.07</v>
-      </c>
-      <c r="AK11">
-        <v>7.02</v>
-      </c>
-      <c r="AL11">
-        <v>9.51</v>
-      </c>
-      <c r="AM11">
-        <v>25.54</v>
-      </c>
-      <c r="AN11">
-        <v>19.67</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>9</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>31.42</v>
-      </c>
-      <c r="AS11">
-        <v>43.36</v>
-      </c>
-      <c r="AT11">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
         <v>6.51</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>9318</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>202006</v>
@@ -2168,10 +1592,10 @@
         <v>4099606539</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I12">
         <v>2917051000</v>
@@ -2180,7 +1604,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L12">
         <v>929005</v>
@@ -2192,117 +1616,69 @@
         <v>5410</v>
       </c>
       <c r="O12">
-        <v>86.56999999999999</v>
+        <v>5.37</v>
       </c>
       <c r="P12">
-        <v>13.43</v>
+        <v>4.98</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>21.41</v>
       </c>
       <c r="R12">
-        <v>51.02</v>
+        <v>10.54</v>
       </c>
       <c r="S12">
-        <v>28.4</v>
+        <v>2.23</v>
       </c>
       <c r="T12">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>3.02</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="V12">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="W12">
-        <v>13.43</v>
+        <v>18.27</v>
       </c>
       <c r="X12">
-        <v>31.3</v>
+        <v>21.61</v>
       </c>
       <c r="Y12">
-        <v>49.78</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>18.92</v>
+        <v>5.37</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>58.09</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>21.28</v>
       </c>
       <c r="AE12">
-        <v>5.37</v>
+        <v>6.16</v>
       </c>
       <c r="AF12">
-        <v>4.98</v>
-      </c>
-      <c r="AG12">
-        <v>21.41</v>
-      </c>
-      <c r="AH12">
-        <v>10.54</v>
-      </c>
-      <c r="AI12">
-        <v>2.23</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="AL12">
-        <v>7.2</v>
-      </c>
-      <c r="AM12">
-        <v>18.27</v>
-      </c>
-      <c r="AN12">
-        <v>21.61</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>5.37</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>9.1</v>
-      </c>
-      <c r="AS12">
-        <v>58.09</v>
-      </c>
-      <c r="AT12">
-        <v>21.28</v>
-      </c>
-      <c r="AU12">
-        <v>6.16</v>
-      </c>
-      <c r="AV12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>10027</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>202006</v>
@@ -2314,10 +1690,10 @@
         <v>1619201518</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I13">
         <v>2917051000</v>
@@ -2326,7 +1702,7 @@
         <v>601.6636363636364</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L13">
         <v>28341707</v>
@@ -2338,49 +1714,49 @@
         <v>791591</v>
       </c>
       <c r="O13">
-        <v>77.69</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>22.31</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R13">
+        <v>31.33</v>
+      </c>
+      <c r="S13">
+        <v>25.57</v>
+      </c>
+      <c r="T13">
         <v>16.24</v>
       </c>
-      <c r="S13">
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>18.05</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>7.01</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>25.57</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
         <v>1.8</v>
       </c>
-      <c r="T13">
-        <v>9.02</v>
-      </c>
-      <c r="U13">
-        <v>18.05</v>
-      </c>
-      <c r="V13">
-        <v>32.57</v>
-      </c>
-      <c r="W13">
-        <v>22.31</v>
-      </c>
-      <c r="X13">
-        <v>40.36</v>
-      </c>
-      <c r="Y13">
-        <v>36.39</v>
-      </c>
-      <c r="Z13">
-        <v>23.25</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
       <c r="AC13">
-        <v>0</v>
+        <v>72.63</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -2391,64 +1767,16 @@
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AG13">
-        <v>1.8</v>
-      </c>
-      <c r="AH13">
-        <v>31.33</v>
-      </c>
-      <c r="AI13">
-        <v>25.57</v>
-      </c>
-      <c r="AJ13">
-        <v>16.24</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>18.05</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>7.01</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>25.57</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>1.8</v>
-      </c>
-      <c r="AS13">
-        <v>72.63</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>11027</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>202007</v>
@@ -2460,10 +1788,10 @@
         <v>4099606539</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I14">
         <v>2917051000</v>
@@ -2472,7 +1800,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K14" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L14">
         <v>780448</v>
@@ -2484,117 +1812,69 @@
         <v>4990</v>
       </c>
       <c r="O14">
-        <v>88.87</v>
+        <v>3.56</v>
       </c>
       <c r="P14">
-        <v>11.13</v>
+        <v>3.56</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>27.09</v>
+        <v>14.11</v>
       </c>
       <c r="S14">
-        <v>6.98</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="T14">
-        <v>10.5</v>
+        <v>2.52</v>
       </c>
       <c r="U14">
-        <v>22.18</v>
+        <v>5.86</v>
       </c>
       <c r="V14">
-        <v>22.11</v>
+        <v>32.29</v>
       </c>
       <c r="W14">
-        <v>11.13</v>
+        <v>7.5</v>
       </c>
       <c r="X14">
-        <v>39.25</v>
+        <v>22.05</v>
       </c>
       <c r="Y14">
-        <v>23.91</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>36.83</v>
+        <v>2.52</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>15.44</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>31.7</v>
       </c>
       <c r="AE14">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>3.56</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>14.11</v>
-      </c>
-      <c r="AI14">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="AJ14">
-        <v>2.52</v>
-      </c>
-      <c r="AK14">
-        <v>5.86</v>
-      </c>
-      <c r="AL14">
-        <v>32.29</v>
-      </c>
-      <c r="AM14">
-        <v>7.5</v>
-      </c>
-      <c r="AN14">
-        <v>22.05</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>2.52</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>15.44</v>
-      </c>
-      <c r="AS14">
-        <v>44.1</v>
-      </c>
-      <c r="AT14">
-        <v>31.7</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
         <v>6.24</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>11739</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>202007</v>
@@ -2606,10 +1886,10 @@
         <v>1619201518</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I15">
         <v>2917051000</v>
@@ -2618,7 +1898,7 @@
         <v>601.6636363636364</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L15">
         <v>67586800</v>
@@ -2630,117 +1910,69 @@
         <v>732578</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>4.79</v>
       </c>
       <c r="R15">
-        <v>23.53</v>
+        <v>36.59</v>
       </c>
       <c r="S15">
-        <v>12.13</v>
+        <v>26.61</v>
       </c>
       <c r="T15">
-        <v>17.59</v>
+        <v>4.56</v>
       </c>
       <c r="U15">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>37.54</v>
+        <v>5.32</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="X15">
-        <v>28.29</v>
+        <v>9.33</v>
       </c>
       <c r="Y15">
-        <v>60.03</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>11.68</v>
+        <v>12.83</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>18.73</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>38.81</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>7.61</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>9.23</v>
       </c>
       <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>4.79</v>
-      </c>
-      <c r="AH15">
-        <v>36.59</v>
-      </c>
-      <c r="AI15">
-        <v>26.61</v>
-      </c>
-      <c r="AJ15">
-        <v>4.56</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>5.32</v>
-      </c>
-      <c r="AM15">
         <v>12.8</v>
       </c>
-      <c r="AN15">
-        <v>9.33</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>12.83</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>18.73</v>
-      </c>
-      <c r="AS15">
-        <v>38.81</v>
-      </c>
-      <c r="AT15">
-        <v>7.61</v>
-      </c>
-      <c r="AU15">
-        <v>9.23</v>
-      </c>
-      <c r="AV15">
-        <v>12.8</v>
-      </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>12740</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>202008</v>
@@ -2752,10 +1984,10 @@
         <v>4099606539</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I16">
         <v>2917051000</v>
@@ -2764,7 +1996,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L16">
         <v>660113</v>
@@ -2776,117 +2008,69 @@
         <v>3768</v>
       </c>
       <c r="O16">
-        <v>80.48</v>
+        <v>0.98</v>
       </c>
       <c r="P16">
-        <v>19.52</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>20.21</v>
+        <v>15.59</v>
       </c>
       <c r="S16">
-        <v>24.4</v>
+        <v>12.94</v>
       </c>
       <c r="T16">
-        <v>9.93</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>21.66</v>
+        <v>35.98</v>
       </c>
       <c r="V16">
-        <v>4.28</v>
+        <v>4.8</v>
       </c>
       <c r="W16">
-        <v>19.52</v>
+        <v>22.45</v>
       </c>
       <c r="X16">
-        <v>42.29</v>
+        <v>7.25</v>
       </c>
       <c r="Y16">
-        <v>31.25</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>26.46</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>13.33</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>61.76</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>24.9</v>
       </c>
       <c r="AE16">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
       </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>15.59</v>
-      </c>
-      <c r="AI16">
-        <v>12.94</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>35.98</v>
-      </c>
-      <c r="AL16">
-        <v>4.8</v>
-      </c>
-      <c r="AM16">
-        <v>22.45</v>
-      </c>
-      <c r="AN16">
-        <v>7.25</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>13.33</v>
-      </c>
-      <c r="AS16">
-        <v>61.76</v>
-      </c>
-      <c r="AT16">
-        <v>24.9</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>13451</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>202008</v>
@@ -2898,10 +2082,10 @@
         <v>1619201518</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I17">
         <v>2917051000</v>
@@ -2910,7 +2094,7 @@
         <v>601.6636363636364</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L17">
         <v>40460332</v>
@@ -2922,49 +2106,49 @@
         <v>560559</v>
       </c>
       <c r="O17">
-        <v>80.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>19.04</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>20.08</v>
       </c>
       <c r="R17">
-        <v>57.48</v>
+        <v>10.83</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>25.74</v>
       </c>
       <c r="T17">
-        <v>11.58</v>
+        <v>11.53</v>
       </c>
       <c r="U17">
         <v>0.25</v>
       </c>
       <c r="V17">
-        <v>30.58</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>0.11</v>
+        <v>16.38</v>
       </c>
       <c r="X17">
-        <v>66.18000000000001</v>
+        <v>15.18</v>
       </c>
       <c r="Y17">
-        <v>13.49</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>20.33</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>35.67</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>64.33</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -2975,64 +2159,16 @@
       <c r="AF17">
         <v>0</v>
       </c>
-      <c r="AG17">
-        <v>20.08</v>
-      </c>
-      <c r="AH17">
-        <v>10.83</v>
-      </c>
-      <c r="AI17">
-        <v>25.74</v>
-      </c>
-      <c r="AJ17">
-        <v>11.53</v>
-      </c>
-      <c r="AK17">
-        <v>0.25</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>16.38</v>
-      </c>
-      <c r="AN17">
-        <v>15.18</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>35.67</v>
-      </c>
-      <c r="AS17">
-        <v>64.33</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>14451</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>202009</v>
@@ -3044,10 +2180,10 @@
         <v>4099606539</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I18">
         <v>2917051000</v>
@@ -3056,7 +2192,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K18" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L18">
         <v>2382454</v>
@@ -3068,117 +2204,69 @@
         <v>9752</v>
       </c>
       <c r="O18">
-        <v>99.18000000000001</v>
+        <v>5.77</v>
       </c>
       <c r="P18">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="R18">
-        <v>10.19</v>
+        <v>38.12</v>
       </c>
       <c r="S18">
-        <v>20.4</v>
+        <v>11.05</v>
       </c>
       <c r="T18">
-        <v>7.67</v>
+        <v>3.14</v>
       </c>
       <c r="U18">
-        <v>40.68</v>
+        <v>3.16</v>
       </c>
       <c r="V18">
-        <v>20.24</v>
+        <v>7.06</v>
       </c>
       <c r="W18">
-        <v>0.82</v>
+        <v>11.02</v>
       </c>
       <c r="X18">
-        <v>26.12</v>
+        <v>17.78</v>
       </c>
       <c r="Y18">
-        <v>16.27</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>57.6</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>63.03</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>7.36</v>
       </c>
       <c r="AE18">
-        <v>5.77</v>
+        <v>9.02</v>
       </c>
       <c r="AF18">
-        <v>0.71</v>
-      </c>
-      <c r="AG18">
-        <v>2.19</v>
-      </c>
-      <c r="AH18">
-        <v>38.12</v>
-      </c>
-      <c r="AI18">
-        <v>11.05</v>
-      </c>
-      <c r="AJ18">
-        <v>3.14</v>
-      </c>
-      <c r="AK18">
-        <v>3.16</v>
-      </c>
-      <c r="AL18">
-        <v>7.06</v>
-      </c>
-      <c r="AM18">
-        <v>11.02</v>
-      </c>
-      <c r="AN18">
-        <v>17.78</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>20.6</v>
-      </c>
-      <c r="AS18">
-        <v>63.03</v>
-      </c>
-      <c r="AT18">
-        <v>7.36</v>
-      </c>
-      <c r="AU18">
-        <v>9.02</v>
-      </c>
-      <c r="AV18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>15163</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>202009</v>
@@ -3190,10 +2278,10 @@
         <v>1619201518</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I19">
         <v>2917051000</v>
@@ -3202,7 +2290,7 @@
         <v>601.6636363636364</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L19">
         <v>9759129</v>
@@ -3214,50 +2302,50 @@
         <v>954810</v>
       </c>
       <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <v>100</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
         <v>100</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>100</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
       <c r="AD19">
         <v>0</v>
       </c>
@@ -3267,64 +2355,16 @@
       <c r="AF19">
         <v>0</v>
       </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>100</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
-        <v>100</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>16156</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>202010</v>
@@ -3336,10 +2376,10 @@
         <v>4099606539</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I20">
         <v>2917051000</v>
@@ -3348,7 +2388,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L20">
         <v>2038781</v>
@@ -3360,117 +2400,69 @@
         <v>12331</v>
       </c>
       <c r="O20">
-        <v>96.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>3.24</v>
+        <v>12.06</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="R20">
-        <v>22.99</v>
+        <v>31.63</v>
       </c>
       <c r="S20">
-        <v>1.01</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="T20">
-        <v>15.43</v>
+        <v>4.05</v>
       </c>
       <c r="U20">
-        <v>24.23</v>
+        <v>6.21</v>
       </c>
       <c r="V20">
-        <v>33.1</v>
+        <v>3.78</v>
       </c>
       <c r="W20">
-        <v>3.24</v>
+        <v>19.21</v>
       </c>
       <c r="X20">
-        <v>12.9</v>
+        <v>11.96</v>
       </c>
       <c r="Y20">
-        <v>66.02</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>21.08</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>19.87</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>59.17</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AF20">
-        <v>12.06</v>
-      </c>
-      <c r="AG20">
-        <v>1.22</v>
-      </c>
-      <c r="AH20">
-        <v>31.63</v>
-      </c>
-      <c r="AI20">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="AJ20">
-        <v>4.05</v>
-      </c>
-      <c r="AK20">
-        <v>6.21</v>
-      </c>
-      <c r="AL20">
-        <v>3.78</v>
-      </c>
-      <c r="AM20">
-        <v>19.21</v>
-      </c>
-      <c r="AN20">
-        <v>11.96</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>19.87</v>
-      </c>
-      <c r="AS20">
-        <v>59.17</v>
-      </c>
-      <c r="AT20">
-        <v>2.84</v>
-      </c>
-      <c r="AU20">
-        <v>0.38</v>
-      </c>
-      <c r="AV20">
         <v>17.74</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>17861</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>202011</v>
@@ -3482,10 +2474,10 @@
         <v>4099606539</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I21">
         <v>2917051000</v>
@@ -3494,7 +2486,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K21" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L21">
         <v>587367</v>
@@ -3506,117 +2498,69 @@
         <v>3900</v>
       </c>
       <c r="O21">
-        <v>93.92</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>6.08</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="R21">
-        <v>10.07</v>
+        <v>7.66</v>
       </c>
       <c r="S21">
-        <v>26.88</v>
+        <v>6.61</v>
       </c>
       <c r="T21">
-        <v>13.01</v>
+        <v>9.23</v>
       </c>
       <c r="U21">
-        <v>23.93</v>
+        <v>14.69</v>
       </c>
       <c r="V21">
-        <v>20.04</v>
+        <v>11.75</v>
       </c>
       <c r="W21">
-        <v>6.08</v>
+        <v>17.21</v>
       </c>
       <c r="X21">
-        <v>31.72</v>
+        <v>29.8</v>
       </c>
       <c r="Y21">
-        <v>45.39</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>22.89</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>28.23</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>47.85</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>15.84</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>3.04</v>
-      </c>
-      <c r="AH21">
-        <v>7.66</v>
-      </c>
-      <c r="AI21">
-        <v>6.61</v>
-      </c>
-      <c r="AJ21">
-        <v>9.23</v>
-      </c>
-      <c r="AK21">
-        <v>14.69</v>
-      </c>
-      <c r="AL21">
-        <v>11.75</v>
-      </c>
-      <c r="AM21">
-        <v>17.21</v>
-      </c>
-      <c r="AN21">
-        <v>29.8</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>28.23</v>
-      </c>
-      <c r="AS21">
-        <v>47.85</v>
-      </c>
-      <c r="AT21">
-        <v>15.84</v>
-      </c>
-      <c r="AU21">
-        <v>3.04</v>
-      </c>
-      <c r="AV21">
         <v>5.04</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>19567</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>202012</v>
@@ -3628,10 +2572,10 @@
         <v>4099606539</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I22">
         <v>2917051000</v>
@@ -3640,7 +2584,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K22" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L22">
         <v>1310063</v>
@@ -3652,117 +2596,69 @@
         <v>7984</v>
       </c>
       <c r="O22">
-        <v>98.36</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>1.64</v>
+        <v>0.59</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="R22">
-        <v>15.07</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="S22">
-        <v>2.9</v>
+        <v>2.19</v>
       </c>
       <c r="T22">
-        <v>59.22</v>
+        <v>5.79</v>
       </c>
       <c r="U22">
-        <v>15.38</v>
+        <v>1.25</v>
       </c>
       <c r="V22">
-        <v>5.79</v>
+        <v>7.95</v>
       </c>
       <c r="W22">
-        <v>1.64</v>
+        <v>10.45</v>
       </c>
       <c r="X22">
-        <v>19.02</v>
+        <v>61.92</v>
       </c>
       <c r="Y22">
-        <v>17.46</v>
+        <v>1.33</v>
       </c>
       <c r="Z22">
-        <v>63.52</v>
+        <v>0</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>64.19</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>25.75</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>5.01</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="AF22">
-        <v>0.59</v>
-      </c>
-      <c r="AG22">
-        <v>1.33</v>
-      </c>
-      <c r="AH22">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="AI22">
-        <v>2.19</v>
-      </c>
-      <c r="AJ22">
-        <v>5.79</v>
-      </c>
-      <c r="AK22">
-        <v>1.25</v>
-      </c>
-      <c r="AL22">
-        <v>7.95</v>
-      </c>
-      <c r="AM22">
-        <v>10.45</v>
-      </c>
-      <c r="AN22">
-        <v>61.92</v>
-      </c>
-      <c r="AO22">
-        <v>1.33</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>64.19</v>
-      </c>
-      <c r="AS22">
-        <v>25.75</v>
-      </c>
-      <c r="AT22">
-        <v>5.01</v>
-      </c>
-      <c r="AU22">
-        <v>3.72</v>
-      </c>
-      <c r="AV22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>21269</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>202101</v>
@@ -3774,10 +2670,10 @@
         <v>4099606539</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I23">
         <v>2917051000</v>
@@ -3786,7 +2682,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K23" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L23">
         <v>340758</v>
@@ -3798,117 +2694,69 @@
         <v>3300</v>
       </c>
       <c r="O23">
-        <v>100</v>
+        <v>7.42</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>13.03</v>
       </c>
       <c r="R23">
-        <v>33.48</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="S23">
-        <v>21.52</v>
+        <v>2.27</v>
       </c>
       <c r="T23">
-        <v>29.7</v>
+        <v>7.42</v>
       </c>
       <c r="U23">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>5</v>
+        <v>19.09</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="X23">
-        <v>47.42</v>
+        <v>28.18</v>
       </c>
       <c r="Y23">
-        <v>40.45</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>12.12</v>
+        <v>7.42</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>11.97</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE23">
-        <v>7.42</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>13.03</v>
-      </c>
-      <c r="AH23">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="AI23">
-        <v>2.27</v>
-      </c>
-      <c r="AJ23">
-        <v>7.42</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>19.09</v>
-      </c>
-      <c r="AM23">
-        <v>13.79</v>
-      </c>
-      <c r="AN23">
-        <v>28.18</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>7.42</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>11.97</v>
-      </c>
-      <c r="AS23">
-        <v>66.20999999999999</v>
-      </c>
-      <c r="AT23">
-        <v>10</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
         <v>4.39</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>22969</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>202102</v>
@@ -3920,10 +2768,10 @@
         <v>4099606539</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I24">
         <v>2917051000</v>
@@ -3932,7 +2780,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K24" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L24">
         <v>784715</v>
@@ -3944,117 +2792,69 @@
         <v>4917</v>
       </c>
       <c r="O24">
-        <v>100</v>
+        <v>21.34</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.39</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="R24">
-        <v>15.22</v>
+        <v>2.19</v>
       </c>
       <c r="S24">
-        <v>38.29</v>
+        <v>14.86</v>
       </c>
       <c r="T24">
-        <v>18.23</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>22.72</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="V24">
-        <v>5.54</v>
+        <v>11.09</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="X24">
-        <v>18.51</v>
+        <v>24.96</v>
       </c>
       <c r="Y24">
-        <v>44.67</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>36.82</v>
+        <v>2.64</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>31.98</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>54.37</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>8.82</v>
       </c>
       <c r="AE24">
-        <v>21.34</v>
+        <v>2.19</v>
       </c>
       <c r="AF24">
-        <v>7.39</v>
-      </c>
-      <c r="AG24">
-        <v>1.13</v>
-      </c>
-      <c r="AH24">
-        <v>2.19</v>
-      </c>
-      <c r="AI24">
-        <v>14.86</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AL24">
-        <v>11.09</v>
-      </c>
-      <c r="AM24">
-        <v>8.75</v>
-      </c>
-      <c r="AN24">
-        <v>24.96</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>2.64</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>31.98</v>
-      </c>
-      <c r="AS24">
-        <v>54.37</v>
-      </c>
-      <c r="AT24">
-        <v>8.82</v>
-      </c>
-      <c r="AU24">
-        <v>2.19</v>
-      </c>
-      <c r="AV24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>24673</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>202103</v>
@@ -4066,10 +2866,10 @@
         <v>4099606539</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I25">
         <v>2917051000</v>
@@ -4078,7 +2878,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K25" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L25">
         <v>758655</v>
@@ -4090,117 +2890,69 @@
         <v>4182</v>
       </c>
       <c r="O25">
-        <v>100</v>
+        <v>4.59</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>4.59</v>
       </c>
       <c r="R25">
-        <v>16.81</v>
+        <v>13.5</v>
       </c>
       <c r="S25">
-        <v>24.47</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>24.68</v>
+        <v>11.27</v>
       </c>
       <c r="U25">
-        <v>16.6</v>
+        <v>5.6</v>
       </c>
       <c r="V25">
-        <v>17.44</v>
+        <v>10.91</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>12.71</v>
       </c>
       <c r="X25">
-        <v>44.87</v>
+        <v>32.88</v>
       </c>
       <c r="Y25">
-        <v>19.76</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>35.37</v>
+        <v>2.51</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>26.13</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>55.2</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>13.21</v>
       </c>
       <c r="AE25">
-        <v>4.59</v>
+        <v>2.23</v>
       </c>
       <c r="AF25">
-        <v>3.95</v>
-      </c>
-      <c r="AG25">
-        <v>4.59</v>
-      </c>
-      <c r="AH25">
-        <v>13.5</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>11.27</v>
-      </c>
-      <c r="AK25">
-        <v>5.6</v>
-      </c>
-      <c r="AL25">
-        <v>10.91</v>
-      </c>
-      <c r="AM25">
-        <v>12.71</v>
-      </c>
-      <c r="AN25">
-        <v>32.88</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>2.51</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>26.13</v>
-      </c>
-      <c r="AS25">
-        <v>55.2</v>
-      </c>
-      <c r="AT25">
-        <v>13.21</v>
-      </c>
-      <c r="AU25">
-        <v>2.23</v>
-      </c>
-      <c r="AV25">
         <v>0.72</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>26384</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>202104</v>
@@ -4212,10 +2964,10 @@
         <v>4099606539</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I26">
         <v>2917051000</v>
@@ -4224,7 +2976,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K26" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L26">
         <v>933710</v>
@@ -4236,117 +2988,69 @@
         <v>5031</v>
       </c>
       <c r="O26">
-        <v>100</v>
+        <v>10.77</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>26.79</v>
       </c>
       <c r="R26">
-        <v>17.72</v>
+        <v>3.38</v>
       </c>
       <c r="S26">
-        <v>4.2</v>
+        <v>2.39</v>
       </c>
       <c r="T26">
-        <v>20.61</v>
+        <v>3.44</v>
       </c>
       <c r="U26">
-        <v>44.8</v>
+        <v>7.28</v>
       </c>
       <c r="V26">
-        <v>12.66</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>21.67</v>
       </c>
       <c r="X26">
-        <v>25.67</v>
+        <v>16.07</v>
       </c>
       <c r="Y26">
-        <v>39.81</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>34.53</v>
+        <v>2.62</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>11.24</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>69.25</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>13.51</v>
       </c>
       <c r="AE26">
-        <v>10.77</v>
+        <v>1.69</v>
       </c>
       <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>26.79</v>
-      </c>
-      <c r="AH26">
-        <v>3.38</v>
-      </c>
-      <c r="AI26">
-        <v>2.39</v>
-      </c>
-      <c r="AJ26">
-        <v>3.44</v>
-      </c>
-      <c r="AK26">
-        <v>7.28</v>
-      </c>
-      <c r="AL26">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="AM26">
-        <v>21.67</v>
-      </c>
-      <c r="AN26">
-        <v>16.07</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>2.62</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>11.24</v>
-      </c>
-      <c r="AS26">
-        <v>69.25</v>
-      </c>
-      <c r="AT26">
-        <v>13.51</v>
-      </c>
-      <c r="AU26">
         <v>1.69</v>
       </c>
-      <c r="AV26">
-        <v>1.69</v>
-      </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>28097</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>202105</v>
@@ -4358,10 +3062,10 @@
         <v>4099606539</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I27">
         <v>2917051000</v>
@@ -4370,7 +3074,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K27" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L27">
         <v>648399</v>
@@ -4382,117 +3086,69 @@
         <v>3718</v>
       </c>
       <c r="O27">
-        <v>100</v>
+        <v>8.23</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>7.44</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>12.97</v>
       </c>
       <c r="R27">
-        <v>49.53</v>
+        <v>4.59</v>
       </c>
       <c r="S27">
-        <v>7.44</v>
+        <v>5.06</v>
       </c>
       <c r="T27">
-        <v>2.29</v>
+        <v>2.37</v>
       </c>
       <c r="U27">
-        <v>23.89</v>
+        <v>5.06</v>
       </c>
       <c r="V27">
-        <v>16.85</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>18.51</v>
       </c>
       <c r="X27">
-        <v>28.72</v>
+        <v>27.29</v>
       </c>
       <c r="Y27">
-        <v>50.47</v>
+        <v>3.88</v>
       </c>
       <c r="Z27">
-        <v>20.81</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>24.68</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>52.29</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>14.08</v>
       </c>
       <c r="AE27">
-        <v>8.23</v>
+        <v>1.19</v>
       </c>
       <c r="AF27">
-        <v>7.44</v>
-      </c>
-      <c r="AG27">
-        <v>12.97</v>
-      </c>
-      <c r="AH27">
-        <v>4.59</v>
-      </c>
-      <c r="AI27">
-        <v>5.06</v>
-      </c>
-      <c r="AJ27">
-        <v>2.37</v>
-      </c>
-      <c r="AK27">
-        <v>5.06</v>
-      </c>
-      <c r="AL27">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="AM27">
-        <v>18.51</v>
-      </c>
-      <c r="AN27">
-        <v>27.29</v>
-      </c>
-      <c r="AO27">
         <v>3.88</v>
       </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>24.68</v>
-      </c>
-      <c r="AS27">
-        <v>52.29</v>
-      </c>
-      <c r="AT27">
-        <v>14.08</v>
-      </c>
-      <c r="AU27">
-        <v>1.19</v>
-      </c>
-      <c r="AV27">
-        <v>3.88</v>
-      </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>29812</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>202106</v>
@@ -4504,10 +3160,10 @@
         <v>4099606539</v>
       </c>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I28">
         <v>2917051000</v>
@@ -4516,7 +3172,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K28" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L28">
         <v>975754</v>
@@ -4528,117 +3184,69 @@
         <v>5126</v>
       </c>
       <c r="O28">
-        <v>100</v>
+        <v>4.27</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="R28">
-        <v>18.53</v>
+        <v>7.31</v>
       </c>
       <c r="S28">
-        <v>15.26</v>
+        <v>4.79</v>
       </c>
       <c r="T28">
-        <v>28.8</v>
+        <v>19.42</v>
       </c>
       <c r="U28">
-        <v>19.68</v>
+        <v>1.88</v>
       </c>
       <c r="V28">
-        <v>17.73</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>9.51</v>
       </c>
       <c r="X28">
-        <v>56.86</v>
+        <v>39.55</v>
       </c>
       <c r="Y28">
-        <v>31.96</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>18.25</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="AE28">
-        <v>4.27</v>
+        <v>1.88</v>
       </c>
       <c r="AF28">
-        <v>3.17</v>
-      </c>
-      <c r="AG28">
-        <v>0.97</v>
-      </c>
-      <c r="AH28">
-        <v>7.31</v>
-      </c>
-      <c r="AI28">
-        <v>4.79</v>
-      </c>
-      <c r="AJ28">
-        <v>19.42</v>
-      </c>
-      <c r="AK28">
         <v>1.88</v>
       </c>
-      <c r="AL28">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="AM28">
-        <v>9.51</v>
-      </c>
-      <c r="AN28">
-        <v>39.55</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>18.25</v>
-      </c>
-      <c r="AS28">
-        <v>46.8</v>
-      </c>
-      <c r="AT28">
-        <v>31.2</v>
-      </c>
-      <c r="AU28">
-        <v>1.88</v>
-      </c>
-      <c r="AV28">
-        <v>1.88</v>
-      </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>31531</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>202107</v>
@@ -4650,10 +3258,10 @@
         <v>4099606539</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I29">
         <v>2917051000</v>
@@ -4662,7 +3270,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L29">
         <v>696122</v>
@@ -4674,117 +3282,69 @@
         <v>5592</v>
       </c>
       <c r="O29">
-        <v>100</v>
+        <v>42.18</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R29">
-        <v>6.04</v>
+        <v>12.22</v>
       </c>
       <c r="S29">
-        <v>6.56</v>
+        <v>2.16</v>
       </c>
       <c r="T29">
-        <v>47.91</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>21.91</v>
+        <v>7.97</v>
       </c>
       <c r="V29">
-        <v>17.59</v>
+        <v>3.28</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>11.18</v>
       </c>
       <c r="X29">
-        <v>14.98</v>
+        <v>14.01</v>
       </c>
       <c r="Y29">
-        <v>64.45999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>20.57</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>17.51</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>67.06</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>10.66</v>
       </c>
       <c r="AE29">
-        <v>42.18</v>
+        <v>1.12</v>
       </c>
       <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>7</v>
-      </c>
-      <c r="AH29">
-        <v>12.22</v>
-      </c>
-      <c r="AI29">
-        <v>2.16</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>7.97</v>
-      </c>
-      <c r="AL29">
-        <v>3.28</v>
-      </c>
-      <c r="AM29">
-        <v>11.18</v>
-      </c>
-      <c r="AN29">
-        <v>14.01</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>17.51</v>
-      </c>
-      <c r="AS29">
-        <v>67.06</v>
-      </c>
-      <c r="AT29">
-        <v>10.66</v>
-      </c>
-      <c r="AU29">
-        <v>1.12</v>
-      </c>
-      <c r="AV29">
         <v>3.65</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>33249</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>202108</v>
@@ -4796,10 +3356,10 @@
         <v>4099606539</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I30">
         <v>2917051000</v>
@@ -4808,7 +3368,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K30" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L30">
         <v>615650</v>
@@ -4820,117 +3380,69 @@
         <v>3588</v>
       </c>
       <c r="O30">
-        <v>100</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>4.26</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>9.18</v>
       </c>
       <c r="R30">
-        <v>33.85</v>
+        <v>21.8</v>
       </c>
       <c r="S30">
-        <v>27.87</v>
+        <v>3.36</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>4.02</v>
       </c>
       <c r="U30">
-        <v>12.13</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>26.15</v>
+        <v>22.21</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>19.84</v>
       </c>
       <c r="X30">
-        <v>42.05</v>
+        <v>7.3</v>
       </c>
       <c r="Y30">
-        <v>38.85</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>19.1</v>
+        <v>4.02</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>48.69</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>17.54</v>
       </c>
       <c r="AE30">
-        <v>8.029999999999999</v>
+        <v>10.33</v>
       </c>
       <c r="AF30">
-        <v>4.26</v>
-      </c>
-      <c r="AG30">
-        <v>9.18</v>
-      </c>
-      <c r="AH30">
-        <v>21.8</v>
-      </c>
-      <c r="AI30">
-        <v>3.36</v>
-      </c>
-      <c r="AJ30">
-        <v>4.02</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
-        <v>22.21</v>
-      </c>
-      <c r="AM30">
-        <v>19.84</v>
-      </c>
-      <c r="AN30">
-        <v>7.3</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>4.02</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>15</v>
-      </c>
-      <c r="AS30">
-        <v>48.69</v>
-      </c>
-      <c r="AT30">
-        <v>17.54</v>
-      </c>
-      <c r="AU30">
-        <v>10.33</v>
-      </c>
-      <c r="AV30">
         <v>4.43</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:32">
       <c r="A31" s="1">
         <v>34971</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>202109</v>
@@ -4942,10 +3454,10 @@
         <v>4099606539</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I31">
         <v>2917051000</v>
@@ -4954,7 +3466,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K31" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L31">
         <v>971031</v>
@@ -4966,117 +3478,69 @@
         <v>4690</v>
       </c>
       <c r="O31">
-        <v>100</v>
+        <v>2.93</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>11.67</v>
       </c>
       <c r="R31">
-        <v>25.48</v>
+        <v>7.68</v>
       </c>
       <c r="S31">
+        <v>7.89</v>
+      </c>
+      <c r="T31">
+        <v>10.45</v>
+      </c>
+      <c r="U31">
+        <v>9.43</v>
+      </c>
+      <c r="V31">
+        <v>13.06</v>
+      </c>
+      <c r="W31">
+        <v>7.89</v>
+      </c>
+      <c r="X31">
+        <v>29</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>23.13</v>
+      </c>
+      <c r="AC31">
+        <v>37.31</v>
+      </c>
+      <c r="AD31">
+        <v>22.49</v>
+      </c>
+      <c r="AE31">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF31">
         <v>8.26</v>
       </c>
-      <c r="T31">
-        <v>18.07</v>
-      </c>
-      <c r="U31">
-        <v>29.9</v>
-      </c>
-      <c r="V31">
-        <v>18.28</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>22.23</v>
-      </c>
-      <c r="Y31">
-        <v>56.88</v>
-      </c>
-      <c r="Z31">
-        <v>20.9</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>2.93</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>11.67</v>
-      </c>
-      <c r="AH31">
-        <v>7.68</v>
-      </c>
-      <c r="AI31">
-        <v>7.89</v>
-      </c>
-      <c r="AJ31">
-        <v>10.45</v>
-      </c>
-      <c r="AK31">
-        <v>9.43</v>
-      </c>
-      <c r="AL31">
-        <v>13.06</v>
-      </c>
-      <c r="AM31">
-        <v>7.89</v>
-      </c>
-      <c r="AN31">
-        <v>29</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>23.13</v>
-      </c>
-      <c r="AS31">
-        <v>37.31</v>
-      </c>
-      <c r="AT31">
-        <v>22.49</v>
-      </c>
-      <c r="AU31">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AV31">
-        <v>8.26</v>
-      </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:32">
       <c r="A32" s="1">
         <v>36693</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>202110</v>
@@ -5088,10 +3552,10 @@
         <v>4099606539</v>
       </c>
       <c r="G32" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I32">
         <v>2917051000</v>
@@ -5100,7 +3564,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K32" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L32">
         <v>1374992</v>
@@ -5112,117 +3576,69 @@
         <v>6986</v>
       </c>
       <c r="O32">
-        <v>100</v>
+        <v>27.04</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>15.01</v>
       </c>
       <c r="R32">
-        <v>38.3</v>
+        <v>7.66</v>
       </c>
       <c r="S32">
-        <v>26.23</v>
+        <v>6.42</v>
       </c>
       <c r="T32">
-        <v>8.51</v>
+        <v>9.67</v>
       </c>
       <c r="U32">
-        <v>17.64</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>9.32</v>
+        <v>3.29</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>11.84</v>
       </c>
       <c r="X32">
-        <v>33.62</v>
+        <v>17.18</v>
       </c>
       <c r="Y32">
-        <v>34.24</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>32.15</v>
+        <v>1.9</v>
       </c>
       <c r="AA32">
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>9.98</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>43.87</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="AE32">
-        <v>27.04</v>
+        <v>17.83</v>
       </c>
       <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>15.01</v>
-      </c>
-      <c r="AH32">
-        <v>7.66</v>
-      </c>
-      <c r="AI32">
-        <v>6.42</v>
-      </c>
-      <c r="AJ32">
-        <v>9.67</v>
-      </c>
-      <c r="AK32">
-        <v>1.9</v>
-      </c>
-      <c r="AL32">
-        <v>3.29</v>
-      </c>
-      <c r="AM32">
-        <v>11.84</v>
-      </c>
-      <c r="AN32">
-        <v>17.18</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>1.9</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>9.98</v>
-      </c>
-      <c r="AS32">
-        <v>43.87</v>
-      </c>
-      <c r="AT32">
-        <v>22.4</v>
-      </c>
-      <c r="AU32">
-        <v>17.83</v>
-      </c>
-      <c r="AV32">
         <v>4.02</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:32">
       <c r="A33" s="1">
         <v>38431</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>202111</v>
@@ -5234,10 +3650,10 @@
         <v>4099606539</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I33">
         <v>2917051000</v>
@@ -5246,7 +3662,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K33" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L33">
         <v>1613019</v>
@@ -5258,117 +3674,69 @@
         <v>9097</v>
       </c>
       <c r="O33">
-        <v>100</v>
+        <v>3.52</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>15.26</v>
       </c>
       <c r="R33">
-        <v>72.70999999999999</v>
+        <v>18.85</v>
       </c>
       <c r="S33">
-        <v>5.08</v>
+        <v>12.45</v>
       </c>
       <c r="T33">
-        <v>9.57</v>
+        <v>2.13</v>
       </c>
       <c r="U33">
-        <v>6.34</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="V33">
-        <v>6.3</v>
+        <v>5.37</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>6.82</v>
       </c>
       <c r="X33">
-        <v>22.08</v>
+        <v>31.49</v>
       </c>
       <c r="Y33">
-        <v>14.39</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>63.53</v>
+        <v>1.58</v>
       </c>
       <c r="AA33">
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>31.75</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>50.73</v>
       </c>
       <c r="AE33">
-        <v>3.52</v>
+        <v>3.78</v>
       </c>
       <c r="AF33">
-        <v>3.17</v>
-      </c>
-      <c r="AG33">
-        <v>15.26</v>
-      </c>
-      <c r="AH33">
-        <v>18.85</v>
-      </c>
-      <c r="AI33">
-        <v>12.45</v>
-      </c>
-      <c r="AJ33">
-        <v>2.13</v>
-      </c>
-      <c r="AK33">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AL33">
-        <v>5.37</v>
-      </c>
-      <c r="AM33">
-        <v>6.82</v>
-      </c>
-      <c r="AN33">
-        <v>31.49</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>1.58</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="AS33">
-        <v>31.75</v>
-      </c>
-      <c r="AT33">
-        <v>50.73</v>
-      </c>
-      <c r="AU33">
-        <v>3.78</v>
-      </c>
-      <c r="AV33">
         <v>2.26</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:32">
       <c r="A34" s="1">
         <v>40170</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>202112</v>
@@ -5380,10 +3748,10 @@
         <v>4099606539</v>
       </c>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I34">
         <v>2917051000</v>
@@ -5392,7 +3760,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K34" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L34">
         <v>1202654</v>
@@ -5404,117 +3772,69 @@
         <v>6249</v>
       </c>
       <c r="O34">
-        <v>100</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>5.36</v>
       </c>
       <c r="R34">
-        <v>25.22</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>19.77</v>
+        <v>6.14</v>
       </c>
       <c r="T34">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>35.81</v>
+        <v>14.84</v>
       </c>
       <c r="V34">
-        <v>15.01</v>
+        <v>9.69</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>32.44</v>
       </c>
       <c r="X34">
-        <v>69.98</v>
+        <v>22.92</v>
       </c>
       <c r="Y34">
-        <v>22.23</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>7.79</v>
+        <v>0</v>
       </c>
       <c r="AA34">
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>5.28</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>50.74</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>38.54</v>
       </c>
       <c r="AE34">
-        <v>8.609999999999999</v>
+        <v>3.33</v>
       </c>
       <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>5.36</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>6.14</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AK34">
-        <v>14.84</v>
-      </c>
-      <c r="AL34">
-        <v>9.69</v>
-      </c>
-      <c r="AM34">
-        <v>32.44</v>
-      </c>
-      <c r="AN34">
-        <v>22.92</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>0</v>
-      </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>5.28</v>
-      </c>
-      <c r="AS34">
-        <v>50.74</v>
-      </c>
-      <c r="AT34">
-        <v>38.54</v>
-      </c>
-      <c r="AU34">
-        <v>3.33</v>
-      </c>
-      <c r="AV34">
         <v>2.12</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:32">
       <c r="A35" s="1">
         <v>41901</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>202201</v>
@@ -5526,10 +3846,10 @@
         <v>4099606539</v>
       </c>
       <c r="G35" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I35">
         <v>2917051000</v>
@@ -5538,7 +3858,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K35" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L35">
         <v>1097033</v>
@@ -5550,117 +3870,69 @@
         <v>6410</v>
       </c>
       <c r="O35">
-        <v>100</v>
+        <v>2.65</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>4.88</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="R35">
-        <v>35.38</v>
+        <v>5.83</v>
       </c>
       <c r="S35">
-        <v>11.78</v>
+        <v>16.27</v>
       </c>
       <c r="T35">
-        <v>14.59</v>
+        <v>30.9</v>
       </c>
       <c r="U35">
-        <v>13.64</v>
+        <v>7.21</v>
       </c>
       <c r="V35">
-        <v>24.61</v>
+        <v>6.25</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X35">
-        <v>15</v>
+        <v>16.32</v>
       </c>
       <c r="Y35">
-        <v>69.8</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="AA35">
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>27.61</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>10.28</v>
       </c>
       <c r="AE35">
-        <v>2.65</v>
+        <v>1.8</v>
       </c>
       <c r="AF35">
-        <v>4.88</v>
-      </c>
-      <c r="AG35">
-        <v>6.2</v>
-      </c>
-      <c r="AH35">
-        <v>5.83</v>
-      </c>
-      <c r="AI35">
-        <v>16.27</v>
-      </c>
-      <c r="AJ35">
-        <v>30.9</v>
-      </c>
-      <c r="AK35">
-        <v>7.21</v>
-      </c>
-      <c r="AL35">
-        <v>6.25</v>
-      </c>
-      <c r="AM35">
-        <v>3.5</v>
-      </c>
-      <c r="AN35">
-        <v>16.32</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>0</v>
-      </c>
-      <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>27.61</v>
-      </c>
-      <c r="AS35">
-        <v>60.31</v>
-      </c>
-      <c r="AT35">
-        <v>10.28</v>
-      </c>
-      <c r="AU35">
-        <v>1.8</v>
-      </c>
-      <c r="AV35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:32">
       <c r="A36" s="1">
         <v>43624</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D36">
         <v>202202</v>
@@ -5672,10 +3944,10 @@
         <v>4099606539</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I36">
         <v>2917051000</v>
@@ -5684,7 +3956,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K36" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L36">
         <v>510912</v>
@@ -5696,117 +3968,69 @@
         <v>3213</v>
       </c>
       <c r="O36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>8.92</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>10.58</v>
       </c>
       <c r="R36">
-        <v>32.68</v>
+        <v>13.07</v>
       </c>
       <c r="S36">
-        <v>6.22</v>
+        <v>1.56</v>
       </c>
       <c r="T36">
-        <v>26.14</v>
+        <v>3.73</v>
       </c>
       <c r="U36">
-        <v>17.12</v>
+        <v>9.23</v>
       </c>
       <c r="V36">
-        <v>17.84</v>
+        <v>9.75</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>12.86</v>
       </c>
       <c r="X36">
-        <v>36.2</v>
+        <v>30.29</v>
       </c>
       <c r="Y36">
-        <v>28.32</v>
+        <v>1.66</v>
       </c>
       <c r="Z36">
-        <v>35.48</v>
+        <v>0</v>
       </c>
       <c r="AA36">
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>9.85</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>56.64</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>17.53</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>12.76</v>
       </c>
       <c r="AF36">
-        <v>8.92</v>
-      </c>
-      <c r="AG36">
-        <v>10.58</v>
-      </c>
-      <c r="AH36">
-        <v>13.07</v>
-      </c>
-      <c r="AI36">
         <v>1.56</v>
       </c>
-      <c r="AJ36">
-        <v>3.73</v>
-      </c>
-      <c r="AK36">
-        <v>9.23</v>
-      </c>
-      <c r="AL36">
-        <v>9.75</v>
-      </c>
-      <c r="AM36">
-        <v>12.86</v>
-      </c>
-      <c r="AN36">
-        <v>30.29</v>
-      </c>
-      <c r="AO36">
-        <v>1.66</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>9.85</v>
-      </c>
-      <c r="AS36">
-        <v>56.64</v>
-      </c>
-      <c r="AT36">
-        <v>17.53</v>
-      </c>
-      <c r="AU36">
-        <v>12.76</v>
-      </c>
-      <c r="AV36">
-        <v>1.56</v>
-      </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:32">
       <c r="A37" s="1">
         <v>45358</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D37">
         <v>202203</v>
@@ -5818,10 +4042,10 @@
         <v>4099606539</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I37">
         <v>2917051000</v>
@@ -5830,7 +4054,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K37" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L37">
         <v>774287</v>
@@ -5842,117 +4066,69 @@
         <v>5361</v>
       </c>
       <c r="O37">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>12.06</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="R37">
-        <v>13.79</v>
+        <v>5.6</v>
       </c>
       <c r="S37">
-        <v>5.73</v>
+        <v>2.8</v>
       </c>
       <c r="T37">
-        <v>17.32</v>
+        <v>13.52</v>
       </c>
       <c r="U37">
-        <v>46.3</v>
+        <v>3.33</v>
       </c>
       <c r="V37">
-        <v>16.86</v>
+        <v>2.4</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>7.33</v>
       </c>
       <c r="X37">
-        <v>45.77</v>
+        <v>49.63</v>
       </c>
       <c r="Y37">
-        <v>37.51</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>16.72</v>
+        <v>0</v>
       </c>
       <c r="AA37">
         <v>0</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>22.72</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>62.89</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>10.99</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AF37">
-        <v>12.06</v>
-      </c>
-      <c r="AG37">
-        <v>3.33</v>
-      </c>
-      <c r="AH37">
-        <v>5.6</v>
-      </c>
-      <c r="AI37">
-        <v>2.8</v>
-      </c>
-      <c r="AJ37">
-        <v>13.52</v>
-      </c>
-      <c r="AK37">
-        <v>3.33</v>
-      </c>
-      <c r="AL37">
-        <v>2.4</v>
-      </c>
-      <c r="AM37">
-        <v>7.33</v>
-      </c>
-      <c r="AN37">
-        <v>49.63</v>
-      </c>
-      <c r="AO37">
-        <v>1</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>22.72</v>
-      </c>
-      <c r="AS37">
-        <v>62.89</v>
-      </c>
-      <c r="AT37">
-        <v>10.99</v>
-      </c>
-      <c r="AU37">
-        <v>2.4</v>
-      </c>
-      <c r="AV37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:32">
       <c r="A38" s="1">
         <v>47100</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <v>202204</v>
@@ -5964,10 +4140,10 @@
         <v>4099606539</v>
       </c>
       <c r="G38" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I38">
         <v>2917051000</v>
@@ -5976,7 +4152,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K38" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L38">
         <v>699544</v>
@@ -5988,117 +4164,69 @@
         <v>3950</v>
       </c>
       <c r="O38">
-        <v>100</v>
+        <v>3.72</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="R38">
-        <v>27.33</v>
+        <v>7</v>
       </c>
       <c r="S38">
-        <v>23.16</v>
+        <v>6.03</v>
       </c>
       <c r="T38">
-        <v>9.01</v>
+        <v>10.95</v>
       </c>
       <c r="U38">
-        <v>21.97</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>18.54</v>
+        <v>11.91</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>13.03</v>
       </c>
       <c r="X38">
-        <v>39.17</v>
+        <v>34.33</v>
       </c>
       <c r="Y38">
-        <v>37.45</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>23.38</v>
+        <v>0</v>
       </c>
       <c r="AA38">
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>23.23</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>36.41</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>23.6</v>
       </c>
       <c r="AE38">
-        <v>3.72</v>
+        <v>11.91</v>
       </c>
       <c r="AF38">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="AG38">
-        <v>4.24</v>
-      </c>
-      <c r="AH38">
-        <v>7</v>
-      </c>
-      <c r="AI38">
-        <v>6.03</v>
-      </c>
-      <c r="AJ38">
-        <v>10.95</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>11.91</v>
-      </c>
-      <c r="AM38">
-        <v>13.03</v>
-      </c>
-      <c r="AN38">
-        <v>34.33</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>23.23</v>
-      </c>
-      <c r="AS38">
-        <v>36.41</v>
-      </c>
-      <c r="AT38">
-        <v>23.6</v>
-      </c>
-      <c r="AU38">
-        <v>11.91</v>
-      </c>
-      <c r="AV38">
         <v>4.84</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:32">
       <c r="A39" s="1">
         <v>48858</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D39">
         <v>202205</v>
@@ -6110,10 +4238,10 @@
         <v>4099606539</v>
       </c>
       <c r="G39" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I39">
         <v>2917051000</v>
@@ -6122,7 +4250,7 @@
         <v>40.3969696969697</v>
       </c>
       <c r="K39" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L39">
         <v>1040143</v>
@@ -6134,105 +4262,57 @@
         <v>5364</v>
       </c>
       <c r="O39">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="R39">
-        <v>19.11</v>
+        <v>12.14</v>
       </c>
       <c r="S39">
-        <v>21.03</v>
+        <v>23.75</v>
       </c>
       <c r="T39">
-        <v>31.49</v>
+        <v>5.86</v>
       </c>
       <c r="U39">
-        <v>3.94</v>
+        <v>4.22</v>
       </c>
       <c r="V39">
-        <v>24.44</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>9.02</v>
       </c>
       <c r="X39">
-        <v>26.67</v>
+        <v>30.08</v>
       </c>
       <c r="Y39">
-        <v>17.5</v>
+        <v>1.58</v>
       </c>
       <c r="Z39">
-        <v>55.83</v>
+        <v>0</v>
       </c>
       <c r="AA39">
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>28.02</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>37.94</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>18.05</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>7.81</v>
       </c>
       <c r="AF39">
-        <v>2.64</v>
-      </c>
-      <c r="AG39">
-        <v>2.32</v>
-      </c>
-      <c r="AH39">
-        <v>12.14</v>
-      </c>
-      <c r="AI39">
-        <v>23.75</v>
-      </c>
-      <c r="AJ39">
-        <v>5.86</v>
-      </c>
-      <c r="AK39">
-        <v>4.22</v>
-      </c>
-      <c r="AL39">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="AM39">
-        <v>9.02</v>
-      </c>
-      <c r="AN39">
-        <v>30.08</v>
-      </c>
-      <c r="AO39">
-        <v>1.58</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>28.02</v>
-      </c>
-      <c r="AS39">
-        <v>37.94</v>
-      </c>
-      <c r="AT39">
-        <v>18.05</v>
-      </c>
-      <c r="AU39">
-        <v>7.81</v>
-      </c>
-      <c r="AV39">
         <v>6.6</v>
       </c>
     </row>
